--- a/漫展信息/上海-漫展信息.xlsx
+++ b/漫展信息/上海-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -487,38 +492,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023.10.12</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上海·“莫奈与他的朋友们”沉浸式光影大展全球巡回中国之旅</t>
+          <t>上海·Hello Kitty Cosmos 50周年光影特展</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>蒙自路818号 上海世博会博物馆</t>
+          <t>漕宝路3055号 宝龙美术馆</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023.10.12 09:00-2024.01.07 18:00</t>
+          <t>2023.11.02 10:00-2024.01.28 18:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>117</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>120</v>
+      </c>
+      <c r="G2" t="n">
+        <v>139</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77879&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77862</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202310/QnmD4yOd1698652192047.jpeg</t>
         </is>
       </c>
     </row>
@@ -528,38 +536,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023.11.02</t>
+          <t>2023-12-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上海·Hello Kitty Cosmos 50周年光影特展</t>
+          <t>上海·多维跃迁-2023 红点设计概念大奖获奖作品展</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>漕宝路3055号 宝龙美术馆</t>
+          <t>国展路1099号 上海世博展览馆</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023.11.02 10:00-2024.01.28 18:00</t>
+          <t>2023.12.10 12:00-2024.02.16 17:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>105</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77862&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78809</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/YsBoZAOW1700551290654.jpeg</t>
         </is>
       </c>
     </row>
@@ -569,38 +580,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023.12.02</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上海·咒术回战 x niko and … 集章之旅</t>
+          <t>上海·新海诚导演作品《铃芽之旅》展 丨 购票抽新海诚见面会门票丨 超限定复刻原画发售</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>吴江路169号 四季坊</t>
+          <t>湖滨路168号 上海无限极荟购物中心</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023.12.02 10:00-2024.01.14 22:00</t>
+          <t>2023.12.22 10:00-2024.02.16 22:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2138</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>1673</v>
+      </c>
+      <c r="G4" t="n">
+        <v>55</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78203&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79166</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/MjTiIYlk1701242361853.jpeg</t>
         </is>
       </c>
     </row>
@@ -610,38 +624,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023.12.10</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上海·多维跃迁-2023 红点设计概念大奖获奖作品展</t>
+          <t>上海·25时主题同人茶会</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>国展路1099号 上海世博展览馆</t>
+          <t>沪太路3100号 尚大国际</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023.12.10 12:00-2024.02.16 17:00</t>
+          <t>2024.01.27 12:00-01.27 18:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>127</v>
+      </c>
+      <c r="G5" t="n">
+        <v>68</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78809&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80548</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/dQ4DrxCk1704683144116.png</t>
         </is>
       </c>
     </row>
@@ -651,38 +668,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023.12.22</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上海·新海诚导演作品《铃芽之旅》展 丨 购票抽新海诚见面会门票丨 超限定复刻原画发售</t>
+          <t>上海·SISPmini动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>湖滨路168号 上海无限极荟购物中心</t>
+          <t>剑川路1000号 龙湖上海闵行天街</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023.12.22 10:00-2024.02.16 22:00</t>
+          <t>2024.01.27 13:00-01.28 19:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1555</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>387</v>
+      </c>
+      <c r="G6" t="n">
+        <v>48</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79166&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79046</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/tprwYGIB1705976768947.jpeg</t>
         </is>
       </c>
     </row>
@@ -692,38 +712,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.06</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上海·第五十届妖漫动漫游戏展</t>
+          <t>上海·同好召集令火影only</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>申滨路36号 虹桥丽宝广场</t>
+          <t>市真南路1199弄1号 智创TOP综合体产城</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.06 11:00-01.07 18:00</t>
+          <t>2024.01.27 10:00-01.28 18:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1551</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>536</v>
+      </c>
+      <c r="G7" t="n">
+        <v>78</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78791&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80284</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/9xGb6MXN1704183627126.jpeg</t>
         </is>
       </c>
     </row>
@@ -733,38 +756,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.06</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上海·魔都排球少年ONLY 3.5</t>
+          <t>上海·咒术only-幽暗之森1.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>海阳路1040弄40号 SKY运动中心</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.06 10:00-01.07 16:30</t>
+          <t>2024.01.27 10:00-01.27 16:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1254</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>已停售</t>
-        </is>
+        <v>248</v>
+      </c>
+      <c r="G8" t="n">
+        <v>59</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78833&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80045</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/hUfcrw3y1703055422885.jpeg</t>
         </is>
       </c>
     </row>
@@ -774,38 +800,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上海 ·WOW潮元 原神主题二次元音乐派对</t>
+          <t>上海·第八届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>政通路189号五角场万达广场C栋 元气森林livehouse</t>
+          <t>吴中路1588号上海爱琴海购物中心F4 竞梦元宇宙</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.13 14:00-01.13 19:00</t>
+          <t>2024.01.27 10:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>148</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
+        <v>1166</v>
+      </c>
+      <c r="G9" t="n">
+        <v>68</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80167&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80979</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/xPOF923U1705545223366.jpeg</t>
         </is>
       </c>
     </row>
@@ -815,38 +844,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上海·代号鸢广陵江东联合only</t>
+          <t>上海·魔都寒假漫展-CF01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>逸仙路270号  上海宝丰联大酒店</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 18:00</t>
+          <t>2024.01.27 10:00-01.28 16:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>209</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>919</v>
+      </c>
+      <c r="G10" t="n">
+        <v>49</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79877&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80204</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/eK96fdcg1703573110264.jpeg</t>
         </is>
       </c>
     </row>
@@ -856,38 +888,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上海·月遇国乙+代号鸢only</t>
+          <t>上海 ·WOW潮元原神x星铁主题二次元狂欢派对</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>汶水路40号 格乐利雅GALLERIA艺术中心(大宁店)</t>
+          <t>政通路189号五角场万达广场C栋 元气森林livehouse</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.13 10:40-01.13 21:00</t>
+          <t>2024.01.28 14:00-01.28 19:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>357</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+        <v>426</v>
+      </c>
+      <c r="G11" t="n">
+        <v>129</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79833&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80167</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/QTp32HEM1705028548091.jpeg</t>
         </is>
       </c>
     </row>
@@ -897,38 +932,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上海·灵能百分百ONLY</t>
+          <t>上海·Comic World动漫游园会（取消）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>长江路258号 中成智谷</t>
+          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 16:30</t>
+          <t>2024.01.28 09:30-01.28 17:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>230</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+        <v>2223</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80008&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78523</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/HAkxl2611705480975408.jpeg</t>
         </is>
       </c>
     </row>
@@ -938,38 +976,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上海·第五十二届妖漫动漫游戏展</t>
+          <t>上海·坏孩纸物语の第32届动漫节之冬日季</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>漕溪北路339号百脑汇4楼 百脑汇</t>
+          <t>剑川路1000号 闵行龙湖天街</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.13 11:00-01.14 18:00</t>
+          <t>2024.01.28 14:00-01.28 20:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1131</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+        <v>641</v>
+      </c>
+      <c r="G13" t="n">
+        <v>36.9</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80235&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80871</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/5fmQrQJ81705573963752.png</t>
         </is>
       </c>
     </row>
@@ -979,38 +1020,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上海·第五十届燃梦星辰动漫展-原X铁X崩免费同好交流会</t>
+          <t>上海·次元裂缝-X 新年二次元偶像日</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>云台路800号 亿丰时代广场</t>
+          <t>海潮路133号B1 JUMP工坊</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.01.13 11:00-01.14 16:30</t>
+          <t>2024.01.28 14:00-01.28 18:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>655</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80382&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80999</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/lNroHqJY1705549448993.jpeg</t>
         </is>
       </c>
     </row>
@@ -1020,38 +1064,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.01.14</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上海·1.14想见你光夜only</t>
+          <t>上海·寻迹冬日LOVELIVE同好会</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>汶水路210号 日本嘉美麓德婚礼公馆(大宁店)</t>
+          <t>愚园路1250号 新歌空间</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.01.14 09:30-01.14 21:30</t>
+          <t>2024.01.31 11:30-01.31 17:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>444</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>184</v>
+      </c>
+      <c r="G15" t="n">
+        <v>83</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79284&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79332</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/Ewreg1JT1701677993728.jpeg</t>
         </is>
       </c>
     </row>
@@ -1061,38 +1108,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上海·排球少年X蓝锁X灌篮ONLY</t>
+          <t>上海·Coser迎春动漫展</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>逸仙路270号  上海宝丰联大酒店</t>
+          <t>海潮路133号B1 JUMP工坊</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>724</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>659</v>
+      </c>
+      <c r="G16" t="n">
+        <v>60</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79261&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80646</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/4WVkFc4d1704787729064.jpeg</t>
         </is>
       </c>
     </row>
@@ -1102,38 +1152,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上海·赛马娘party·华亭迎春</t>
+          <t>上海·ENP电次元派对vol.04</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>淞宝路96号化成路淞宝路 新长江大酒店</t>
+          <t>人民大道221号 迪美购物中心</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.02.03 18:30-02.03 22:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>68</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>99</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80384&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80945</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/1sjalWS51705479361512.jpeg</t>
         </is>
       </c>
     </row>
@@ -1143,38 +1196,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上海·霓虹次元·运动番ONLY夜场2.0</t>
+          <t>上海·偶像梦幻祭红白歌合战Only</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>万航渡路849号海森国际大厦3楼 Miss Club</t>
+          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.01.20 16:30-01.20 21:30</t>
+          <t>2024.02.03 13:30-02.03 22:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>207</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="G18" t="n">
+        <v>88</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80234&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81199</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/C7E7svbZ1705903245860.jpeg</t>
         </is>
       </c>
     </row>
@@ -1184,38 +1240,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上海·SISPmini动漫游戏嘉年华</t>
+          <t>上海·第七届次元鹿角二次元派对</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>淞虹路377号 长宁ArtPark大融城</t>
+          <t>长宁路1191号来福士西区(W)B1层01号、11号 星零界</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.01.27 13:00-01.28 19:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>174</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>1296</v>
+      </c>
+      <c r="G19" t="n">
+        <v>98</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79046&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79938</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/b1XT2w4T1705027781100.jpeg</t>
         </is>
       </c>
     </row>
@@ -1225,38 +1284,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上海·同好召集令火影only</t>
+          <t>上海·寒假CF漫展-春节档-神龙在世</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>市真南路1199弄1号 智创TOP综合体产城</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 18:00</t>
+          <t>2024.02.10 10:00-02.17 16:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>221</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>49</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80284&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81192</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/S8XxkA631705896741998.jpeg</t>
         </is>
       </c>
     </row>
@@ -1266,38 +1328,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上海·咒术only-幽暗之森1.0</t>
+          <t>上海·奇卡波利动漫嘉年华</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>申滨路36号 虹桥丽宝广场</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 16:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>146</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="G21" t="n">
+        <v>48.8</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80045&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81260</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/9OHovK2V1705978109130.jpeg</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1372,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上海·魔都寒假漫展-CF01</t>
+          <t>上海·魔都COS漫展-情人节专场AM01</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1322,23 +1387,26 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 16:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>260</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>89</v>
+      </c>
+      <c r="G22" t="n">
+        <v>49</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80204&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80691</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/aSdjV6Kw1704868345679.jpeg</t>
         </is>
       </c>
     </row>
@@ -1348,38 +1416,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上海·Comic World动漫游园会</t>
+          <t>上海·第九届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>康梧路519号2门 猩际野球室内足球馆</t>
+          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.01.28 09:30-01.28 17:00</t>
+          <t>2024.02.16 11:00-02.17 18:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1408</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>1207</v>
+      </c>
+      <c r="G23" t="n">
+        <v>65.90000000000001</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78523&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80497</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/0duSXTQy1704423309244.jpeg</t>
         </is>
       </c>
     </row>
@@ -1389,38 +1460,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.01.31</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上海·寻迹冬日LOVELIVE同好会</t>
+          <t>上海·少女番only2.0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>愚园路1250号 新歌空间</t>
+          <t>营口路699号(黄兴公园地铁站2号口旁) 花嫁丽舍</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.01.31 11:30-01.31 17:00</t>
+          <t>2024.02.17 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>137</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+        <v>208</v>
+      </c>
+      <c r="G24" t="n">
+        <v>80</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79332&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81148</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/j6eEZ18S1705657346664.jpeg</t>
         </is>
       </c>
     </row>
@@ -1430,38 +1504,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上海·第七届次元鹿角动漫游戏展</t>
+          <t>上海·SISP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>长宁路1191号长宁来福士B1 长宁来福士</t>
+          <t>年家浜路518号 周浦万达广场</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.24 13:00-02.25 19:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>62</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>114</v>
+      </c>
+      <c r="G25" t="n">
+        <v>48</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79938&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80339</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/a8iuOufB1703832570508.jpeg</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1548,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上海·第九届次元鹿角动漫游戏展</t>
+          <t>上海·第三届燃梦BACG PRO游戏动漫展-原X铁X崩同好交流</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1486,23 +1563,26 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.02.16 11:00-02.17 18:00</t>
+          <t>2024.02.24 11:00-02.25 16:30</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>2475</v>
+      </c>
+      <c r="G26" t="n">
+        <v>65.8</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80497&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77754</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/7eGZETK91701943985671.jpeg</t>
         </is>
       </c>
     </row>
@@ -1512,38 +1592,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上海·SISP动漫游戏嘉年华</t>
+          <t>上海·魔都元宵节漫展-COS为王</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>年家浜路518号 周浦万达广场</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.02.24 13:00-02.25 19:00</t>
+          <t>2024.02.24 10:00-02.25 16:00</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>46</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>49</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80339&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81238</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/KxQZPADR1705913896609.jpeg</t>
         </is>
       </c>
     </row>
@@ -1553,38 +1636,41 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上海·第三届燃梦BACG PRO游戏动漫展</t>
+          <t>上海·原神X星穹铁道ONLY</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
+          <t>逸仙路301号靠纪念路路口 上海宝丰联大酒店</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.02.24 11:00-02.25 16:30</t>
+          <t>2024.03.02 10:00-03.02 17:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2198</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>249</v>
+      </c>
+      <c r="G28" t="n">
+        <v>60</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77754&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80299</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/V0xu26Cl1703753850690.jpeg</t>
         </is>
       </c>
     </row>
@@ -1594,38 +1680,41 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上海·原神X星穹铁道ONLY</t>
+          <t>上海·怀旧番ONLY</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>逸仙路301号靠纪念路路口 上海宝丰联大酒店</t>
+          <t>逸仙路270号  上海宝丰联大酒店</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.02 17:00</t>
+          <t>2024.03.03 10:00-03.03 17:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>106</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>129</v>
+      </c>
+      <c r="G29" t="n">
+        <v>60</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80299&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80575</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/y4uWdyPT1704700763902.jpeg</t>
         </is>
       </c>
     </row>
@@ -1635,38 +1724,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024.03.09</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上海·青山刚昌ONLY【名侦探柯南&amp;魔术快斗】</t>
+          <t>上海·S·CGE动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>漕宝路1688号 诺宝中心酒店</t>
+          <t>军工路1076号 纪希片场(秀场)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.09 16:30</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>764</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="G30" t="n">
+        <v>70</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76410&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81173</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/TYA5FLkE1705891815532.jpeg</t>
         </is>
       </c>
     </row>
@@ -1676,38 +1768,41 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024.04.05</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上海·第四届次元鹿角动漫游戏展</t>
+          <t>上海·第五十三届燃梦星辰动漫嘉年华-随机宅舞</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>顾村镇蕰川路6号 智慧湾科创园</t>
+          <t>周家嘴路3608号 宝龙旭辉广场</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.04.05 10:00-04.06 17:00</t>
+          <t>2024.03.09 10:20-03.10 16:30</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>51</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="G31" t="n">
+        <v>58</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78228&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80571</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/SHH70VXN1704700240858.jpeg</t>
         </is>
       </c>
     </row>
@@ -1717,38 +1812,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上海·  第五十三届妖漫动漫游戏展</t>
+          <t>上海·青山刚昌ONLY【名侦探柯南&amp;魔术快斗】</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>安蒲汇塘路50号 安垦徐汇创意园</t>
+          <t>漕宝路1688号 诺宝中心酒店</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
+          <t>2024.03.09 10:00-03.09 16:30</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>71</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>872</v>
+      </c>
+      <c r="G32" t="n">
+        <v>73</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78657&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=76410</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202309/fVXMrcHy1693971682397.jpeg</t>
         </is>
       </c>
     </row>
@@ -1758,38 +1856,261 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>上海·坏孩纸物语の第33届动漫节之庄子篇</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>中山北路3300号4楼L4001号 环球港上海世嘉都市乐园</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.17 21:00</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>40</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81138</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/jpr1lCt21705652306481.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上海·第四届次元鹿角动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>顾村镇蕰川路6号 智慧湾科创园</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024.04.05 10:00-04.06 17:00</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>60</v>
+      </c>
+      <c r="G34" t="n">
+        <v>60</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78228</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202311/jgqIFxhx1699344723568.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上海·  第五十三届妖漫动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>曹杨路1888号 复悦荟</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024.04.27 10:00-04.27 17:00</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>146</v>
+      </c>
+      <c r="G35" t="n">
+        <v>80</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78657</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/tamNdgEN1705331335847.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上海·S·CGE动漫游戏嘉年华</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>军工路1076号 纪希片场(秀场)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.02 17:00</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>70</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81204</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/nbFRULYe1705904589212.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>上海·魔都野良神only</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>南京东路830号 第一百货</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2024.05.01 10:00-05.01 17:00</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>38</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80321&amp;msource=Msearch_colligation</t>
+      <c r="F37" t="n">
+        <v>186</v>
+      </c>
+      <c r="G37" t="n">
+        <v>79</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80321</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/KBlb0enU1704358750268.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上海·灌篮高手--青春永不散场</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>逸仙路1328弄 新业坊</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024.05.05 10:00-05.05 17:00</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>11</v>
+      </c>
+      <c r="G38" t="n">
+        <v>89</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80835</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/hdaVclFC1705301931054.jpeg</t>
         </is>
       </c>
     </row>
@@ -1804,7 +2125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1856,6 +2177,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1863,7 +2189,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023.12.25</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1882,19 +2208,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80057&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80057</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/AeWGG9Rk1703131189224.jpeg</t>
         </is>
       </c>
     </row>
@@ -1904,7 +2233,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023.12.27</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1923,19 +2252,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="G3" t="n">
+        <v>90</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80103&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80103</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/2h2tIq7l1703144874867.png</t>
         </is>
       </c>
     </row>
@@ -1945,7 +2277,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.01</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1964,19 +2296,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79939&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79939</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/hY6FVnjM1702954652593.jpeg</t>
         </is>
       </c>
     </row>
@@ -1986,38 +2321,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.07</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上海·2024上远野太洸粉丝见面会</t>
+          <t>上海·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>万航渡后路19号3楼 瓦肆VAS SHANGHAI</t>
+          <t>嘉兴路街道瑞虹路188号瑞虹天地月亮湾3层 Modern Sky LAB摩登天空(瑞虹天地店)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.07 11:30-01.07 17:30</t>
+          <t>2024.01.23 20:00-01.23 22:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>已停售</t>
-        </is>
+        <v>91</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79930&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79641</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/CoNbgCpO1703644783043.jpeg</t>
         </is>
       </c>
     </row>
@@ -2027,38 +2365,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.11</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上海 |【经典回归】2024等爱重启《女人万岁》舞台剧</t>
+          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>北海路251号近西藏南路 茉莉花剧场</t>
+          <t>丁香路425号 上海东方艺术中心</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.11 19:30-01.14 16:30</t>
+          <t>2024.01.26 19:30-01.26 21:30</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
+        <v>163</v>
+      </c>
+      <c r="G6" t="n">
+        <v>80</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79965&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78418</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202311/GHpvkT5Y1699605760230.jpeg</t>
         </is>
       </c>
     </row>
@@ -2068,38 +2409,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.19</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上海·音乐剧《三星堆》</t>
+          <t>上海·Azurock」Azurose ACG Cover Live</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>汾阳路6号 上音歌剧院</t>
+          <t>愚园路1398号 育音堂音乐公园</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.19 19:30-01.21 22:00</t>
+          <t>2024.01.27 19:00-01.27 21:30</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
+        <v>59</v>
+      </c>
+      <c r="G7" t="n">
+        <v>88</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79832&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80277</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/5d6O1Rf11703742965244.png</t>
         </is>
       </c>
     </row>
@@ -2109,38 +2453,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上海·《进击的巨人》动漫ACG音乐会（取消）</t>
+          <t>上海·日本原版《数码宝贝舞台剧：游乐园之谜》</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>南京西路1376号上海商城4层 商城剧院</t>
+          <t>茂名南路57号近长乐路 上海兰心大戏院</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.20 15:00-01.20 16:30</t>
+          <t>2024.01.27 15:30-01.27 20:55</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>51</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="G8" t="n">
+        <v>120</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80101&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79783</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/S6nZ327b1702534484951.jpeg</t>
         </is>
       </c>
     </row>
@@ -2150,38 +2497,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上海·奥井雅美出道突破30周年演唱会</t>
+          <t>上海•Risa Yuzuki 1st ONEMAN LIVE 「Future Interlink」 追加公演</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>宜昌路179号 万代南梦宫上海文化中心</t>
+          <t>愚园路1250号 新歌空间</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.20 18:30-01.20 20:10</t>
+          <t>2024.01.27 18:30-01.27 21:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
+        <v>298</v>
+      </c>
+      <c r="G9" t="n">
+        <v>278</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80373&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77773</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202310/XKKYWAk51698315607196.png</t>
         </is>
       </c>
     </row>
@@ -2191,38 +2541,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上海·齐藤朱夏2024演唱会</t>
+          <t>上海·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
+          <t>中兴路1683号金融街购物中心L3-27 蜚声上海Livehouse</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.20 14:00-01.20 15:30</t>
+          <t>2024.02.02 12:30-02.02 21:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>802</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>624</v>
+      </c>
+      <c r="G10" t="n">
+        <v>380</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79842&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80128</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/DEW1XYty1703226993965.jpeg</t>
         </is>
       </c>
     </row>
@@ -2232,38 +2585,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.23</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上海·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>上海·触手猴钢琴巡演·marasy piano live tour『生音』上海站·Powered by 东方弹幕神乐失落幻想</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>嘉兴路街道瑞虹路188号瑞虹天地月亮湾3层 Modern Sky LAB摩登天空(瑞虹天地店)</t>
+          <t>丁香路425号(上海科技馆地铁站1号口步行460米) 上海东方艺术中心音乐厅</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.23 20:00-01.23 22:00</t>
+          <t>2024.02.04 19:30-02.04 21:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>73</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>334</v>
+      </c>
+      <c r="G11" t="n">
+        <v>280</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79641&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80734</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/IcjPp0TE1704951328918.jpeg</t>
         </is>
       </c>
     </row>
@@ -2273,38 +2629,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.01.26</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
+          <t>上海·【情人节特辑】《那年我们》记忆重启韩剧经典OST音乐会《请回答1988》《来自星星的你》</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>丁香路425号 上海东方艺术中心</t>
+          <t>牛庄路704号 中国大戏院</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.26 19:30-01.26 21:30</t>
+          <t>2024.02.14 19:30-02.14 21:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>130</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78418&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80615</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/5DDVhKcO1704767761361.png</t>
         </is>
       </c>
     </row>
@@ -2314,38 +2673,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上海·Azurock」Azurose ACG Cover Live</t>
+          <t>上海·《哈利的魔法世界》动漫视听音乐会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>愚园路1398号 育音堂音乐公园</t>
+          <t>都市路4889号（莘庄地铁站南广场） 上海保利城市剧院</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.27 19:00-01.27 21:30</t>
+          <t>2024.02.24 14:30-02.24 16:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>158</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80277&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80639</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/dp013A4p1704783993628.png</t>
         </is>
       </c>
     </row>
@@ -2355,38 +2717,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上海·日本原版《数码宝贝舞台剧：游乐园之谜》</t>
+          <t>上海·青山吉能见面会</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>茂名南路57号近长乐路 上海兰心大戏院</t>
+          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.01.27 15:30-01.27 20:55</t>
+          <t>2024.02.25 14:30-02.25 19:30</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="G14" t="n">
+        <v>380</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79783&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80142</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/1npuHFBM1703231674558.jpeg</t>
         </is>
       </c>
     </row>
@@ -2396,38 +2761,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上海•Risa Yuzuki 1st ONEMAN LIVE 「Future Interlink」 追加公演</t>
+          <t>上海·2024藤田玲上海粉丝见面会</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>愚园路1250号 新歌空间</t>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.01.27 18:30-01.27 21:00</t>
+          <t>2024.03.02 12:30-03.02 19:40</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>268</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>278</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>580</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77773&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80993</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Vm6ntgVd1705548188785.png</t>
         </is>
       </c>
     </row>
@@ -2437,38 +2805,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.02.02</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上海·次元LAB 二次元电音节</t>
+          <t>上海·小山百代2024上海粉丝见面会</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>中兴路1683号金融街购物中心L3-27 蜚声上海Livehouse</t>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.02.02 12:30-02.02 21:00</t>
+          <t>2024.03.02 13:00-03.02 20:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>428</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>232</v>
+      </c>
+      <c r="G16" t="n">
+        <v>380</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80128&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80924</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/FpA9OkKy1705467080070.jpeg</t>
         </is>
       </c>
     </row>
@@ -2478,38 +2849,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.02.25</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上海·青山吉能见面会</t>
+          <t>上海·小山百代2024上海粉丝见面会</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.02.25 14:30-02.25 19:30</t>
+          <t>2024.03.02 13:00-03.02 20:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>167</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>232</v>
+      </c>
+      <c r="G17" t="n">
+        <v>380</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80142&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80924</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/FpA9OkKy1705467080070.jpeg</t>
         </is>
       </c>
     </row>
@@ -2519,38 +2893,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.04.06</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
+          <t>上海·《挪威的森林》—摇滚情歌之夜演唱会</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>复兴中路1380号 捷豹上海交响音乐厅</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.04.06 19:30-04.06 21:30</t>
+          <t>2024.03.09 19:30-03.09 21:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>72</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80050&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81241</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/1FJ0Fj5m1705915336335.jpeg</t>
         </is>
       </c>
     </row>
@@ -2560,38 +2937,525 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.04.13</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>上海·爱乐之城音乐会</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>南京西路1376号 上海商城剧院</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024.03.09 14:00-03.09 15:30</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81289</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/ZZXtDrwZ1705996679699.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上海·三月的幻想演唱会2024「飞越蓝色时刻」</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024.03.16 19:00-03.16 20:30</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>40</v>
+      </c>
+      <c r="G20" t="n">
+        <v>380</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80811</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/TO6xpSqr1705289483473.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上海 ·《疯狂动物城》动漫视听音乐会</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>牛庄路704号 中国大戏院</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024.03.17 15:30-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>80</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81112</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/Wg8b6SRn1705651166088.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上海·amazarashi Asia Tour 2024 「永遠市 -Eternal City-」上海公演</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024.03.17 18:00-03.17 19:30</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>446</v>
+      </c>
+      <c r="G22" t="n">
+        <v>480</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81039</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/icsawZU11705566039011.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上海·《笑傲江湖》经典武侠影视金曲音乐会</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>牛庄路704号 中国大戏院</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024.03.17 19:30-03.17 21:00</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>80</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80875</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/8AwIAy4I1705385447242.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上海·遇见新海诚--帝玖「这次一定」室内乐ACG音乐会</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>延安东路523号 凯迪拉克·上海音乐厅</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024.03.17 14:00-03.17 16:00</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>80</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81258</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/eysvN81k1705977896972.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上海·春卷饭 十周年  2024  专场演出</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>嘉兴路街道瑞虹路188号瑞虹天地月亮湾3层 Modern Sky LAB摩登天空(瑞虹天地店)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024.03.21 20:00-03.21 22:00</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>328</v>
+      </c>
+      <c r="G25" t="n">
+        <v>480</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81190</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/ho9rIMg21705894649801.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上海· TRUE（唐沢美帆）上海动漫交响音乐会</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>丁香路425号 上海东方艺术中心</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024.03.30 19:30-03.30 21:00</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>145</v>
+      </c>
+      <c r="G26" t="n">
+        <v>280</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80906</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/FaJbLvS51705401178235.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>复兴中路1380号 捷豹上海交响音乐厅</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024.04.06 19:30-04.06 21:30</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" t="n">
+        <v>80</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80050</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/0iJP3TY61703056498448.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>上海·《四月是你的谎言》——“公生”与“薰”的钢琴小提琴唯美经典音乐集</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>丁香路425号 上海东方艺术中心</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2024.04.13 19:30-04.13 21:30</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>129</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H19" t="b">
+      <c r="F28" t="n">
+        <v>172</v>
+      </c>
+      <c r="G28" t="n">
+        <v>80</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78667&amp;msource=Msearch_colligation</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78667</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202311/bTP7w6GD1700130122940.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上海·Laurent Coulondre“心动巴黎”2024中国巡回音乐会</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>汾阳路20号上海音乐学院内 上海贺绿汀音乐厅</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024.04.20 19:30-04.20 21:30</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>80</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81135</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/wXDdS5ap1705651730828.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上海· 夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>东大名路889号 友邦大剧院</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024.04.26 19:30-04.26 21:30</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
+        <v>280</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81139</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/0Fj4cYOH1705652393930.jpeg</t>
         </is>
       </c>
     </row>
@@ -2606,7 +3470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2658,6 +3522,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2665,7 +3534,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023.01.12</t>
+          <t>2023-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2684,19 +3553,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1659</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>1726</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=70666&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=70666</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202106/okF9H2Uj1623911727887.jpeg</t>
         </is>
       </c>
     </row>
@@ -2706,7 +3578,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023.10.16</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2725,19 +3597,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>59</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>996</t>
-        </is>
+        <v>69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>996</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77530&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77530</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202310/JqP3lHJt1698030195136.jpeg</t>
         </is>
       </c>
     </row>
@@ -2747,7 +3622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023.10.25</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2766,19 +3641,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>49.9</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79057&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79057</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/ASamaqBx1701419480253.jpeg</t>
         </is>
       </c>
     </row>
@@ -2788,7 +3666,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023.12.01</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2807,19 +3685,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1761</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>1989</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79005&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79005</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/02P8eD3Z1700821985538.jpeg</t>
         </is>
       </c>
     </row>
@@ -2829,7 +3710,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023.12.06</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2844,23 +3725,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023.12.06 00:00-2024.01.24 23:59</t>
+          <t>2023.12.06 00:00-2024.02.27 23:59</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1763</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>2093</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79292&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79292</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/LyD46Kty1705488020552.jpeg</t>
         </is>
       </c>
     </row>
@@ -2870,38 +3754,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023.12.09</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上海·非人哉官方授权主题店</t>
+          <t>上海·次元波板糖×时光代理人「锦瑟华年主题快闪店」</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>南京东路830号第一百货商业中心B馆5楼(海底捞旁边) 第一百货商业中心</t>
+          <t>西藏北路166静安大悦城北座6楼611号 次元波板糖</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023.12.09 00:00-2024.01.22 23:59</t>
+          <t>2023.12.31 00:00-2024.01.29 23:59</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>591</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>821</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79240&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79972</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/z7bFCMqM1702972063289.png</t>
         </is>
       </c>
     </row>
@@ -2911,79 +3798,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023.12.31</t>
+          <t>2024-01-06</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上海·次元波板糖×时光代理人「锦瑟华年主题快闪店」</t>
+          <t>上海·罗小黑 x HAPPY ZOO主题Cafe</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>西藏北路166静安大悦城北座6楼611号 次元波板糖</t>
+          <t>南京东路340号 百联zx创趣场</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023.12.31 00:00-2024.01.29 23:59</t>
+          <t>2024.01.06 00:00-02.29 23:59</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>568</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>715</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79972&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2024.01.06</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上海·罗小黑 x HAPPY ZOO主题Cafe</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>南京东路340号 百联zx创趣场</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024.01.06 00:00-01.31 23:59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>434</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80171&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80171</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/chPePM8d1703485388734.png</t>
         </is>
       </c>
     </row>
@@ -2998,7 +3847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3050,6 +3899,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -3057,7 +3911,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023.01.12</t>
+          <t>2023-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3076,19 +3930,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1659</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>1726</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=70666&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=70666</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202106/okF9H2Uj1623911727887.jpeg</t>
         </is>
       </c>
     </row>
@@ -3098,38 +3955,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023.10.12</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上海·“莫奈与他的朋友们”沉浸式光影大展全球巡回中国之旅</t>
+          <t>上海·古影文化《1941·新和医院》大型沉浸式互动剧场</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>蒙自路818号 上海世博会博物馆</t>
+          <t>金玉路2号 古影沉浸式互动游戏剧场</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023.10.12 09:00-2024.01.07 18:00</t>
+          <t>2023.10.16 10:00-2024.10.15 21:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>117</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>996</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77879&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77530</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202310/JqP3lHJt1698030195136.jpeg</t>
         </is>
       </c>
     </row>
@@ -3139,38 +3999,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023.10.16</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上海·古影文化《1941·新和医院》大型沉浸式互动剧场</t>
+          <t>上海·方块大战（豫园店）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>金玉路2号 古影沉浸式互动游戏剧场</t>
+          <t>丽水路88号2楼213 城隍庙第一购物中心</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023.10.16 10:00-2024.10.15 21:00</t>
+          <t>2023.10.25 10:00-2024.10.20 21:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>59</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>996</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>49.9</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77530&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79057</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/ASamaqBx1701419480253.jpeg</t>
         </is>
       </c>
     </row>
@@ -3180,7 +4043,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023.11.02</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3199,19 +4062,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>105</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
+        <v>120</v>
+      </c>
+      <c r="G5" t="n">
+        <v>139</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77862&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77862</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202310/QnmD4yOd1698652192047.jpeg</t>
         </is>
       </c>
     </row>
@@ -3221,7 +4087,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023.12.01</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3240,19 +4106,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1761</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>1990</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79005&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79005</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/02P8eD3Z1700821985538.jpeg</t>
         </is>
       </c>
     </row>
@@ -3262,7 +4131,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023.12.06</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3277,23 +4146,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023.12.06 00:00-2024.01.24 23:59</t>
+          <t>2023.12.06 00:00-2024.02.27 23:59</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1763</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>2093</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79292&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79292</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/LyD46Kty1705488020552.jpeg</t>
         </is>
       </c>
     </row>
@@ -3303,38 +4175,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023.12.09</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上海·非人哉官方授权主题店</t>
+          <t>上海·新海诚导演作品《铃芽之旅》展 丨 购票抽新海诚见面会门票丨 超限定复刻原画发售</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>南京东路830号第一百货商业中心B馆5楼(海底捞旁边) 第一百货商业中心</t>
+          <t>湖滨路168号 上海无限极荟购物中心</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023.12.09 00:00-2024.01.22 23:59</t>
+          <t>2023.12.22 10:00-2024.02.16 22:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>591</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>1673</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79240&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79166</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/MjTiIYlk1701242361853.jpeg</t>
         </is>
       </c>
     </row>
@@ -3344,38 +4219,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023.12.10</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上海·多维跃迁-2023 红点设计概念大奖获奖作品展</t>
+          <t>上海·爱乐汇“浪漫经典·一生必听”永恒精选2023烛光音乐会</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>国展路1099号 上海世博展览馆</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023.12.10 12:00-2024.02.16 17:00</t>
+          <t>2023.12.25 19:30-2024.02.27 21:00</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>24</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="G9" t="n">
+        <v>90</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78809&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80057</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/AeWGG9Rk1703131189224.jpeg</t>
         </is>
       </c>
     </row>
@@ -3385,38 +4263,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023.12.22</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上海·新海诚导演作品《铃芽之旅》展 丨 购票抽新海诚见面会门票丨 超限定复刻原画发售</t>
+          <t>上海·爱乐汇《天空之城》久石让&amp;宫崎骏动漫经典音乐作品演奏会</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>湖滨路168号 上海无限极荟购物中心</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023.12.22 10:00-2024.02.16 22:00</t>
+          <t>2023.12.27 19:30-2024.02.03 12:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1555</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="G10" t="n">
+        <v>90</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79166&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80103</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/2h2tIq7l1703144874867.png</t>
         </is>
       </c>
     </row>
@@ -3426,38 +4307,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023.12.25</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上海·爱乐汇“浪漫经典·一生必听”永恒精选2023烛光音乐会</t>
+          <t>上海·次元波板糖×时光代理人「锦瑟华年主题快闪店」</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>南京西路1376号 上海商城剧院</t>
+          <t>西藏北路166静安大悦城北座6楼611号 次元波板糖</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023.12.25 19:30-2024.02.27 21:00</t>
+          <t>2023.12.31 00:00-2024.01.29 23:59</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+        <v>821</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80057&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79972</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/z7bFCMqM1702972063289.png</t>
         </is>
       </c>
     </row>
@@ -3467,38 +4351,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023.12.31</t>
+          <t>2024-01-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上海·次元波板糖×时光代理人「锦瑟华年主题快闪店」</t>
+          <t>上海·罗小黑 x HAPPY ZOO主题Cafe</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>西藏北路166静安大悦城北座6楼611号 次元波板糖</t>
+          <t>南京东路340号 百联zx创趣场</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023.12.31 00:00-2024.01.29 23:59</t>
+          <t>2024.01.06 00:00-02.29 23:59</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>568</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>715</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79972&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80171</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/chPePM8d1703485388734.png</t>
         </is>
       </c>
     </row>
@@ -3508,38 +4395,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.01</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上海·沉浸式悬念剧场《9号秘事》</t>
+          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>人民大道300号 上海大剧院</t>
+          <t>丁香路425号 上海东方艺术中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.01 19:30-01.28 16:20</t>
+          <t>2024.01.26 19:30-01.26 21:30</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
+        <v>163</v>
+      </c>
+      <c r="G13" t="n">
+        <v>80</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79939&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78418</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202311/GHpvkT5Y1699605760230.jpeg</t>
         </is>
       </c>
     </row>
@@ -3549,38 +4439,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.01.06</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上海·第五十届妖漫动漫游戏展</t>
+          <t>上海·25时主题同人茶会</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>申滨路36号 虹桥丽宝广场</t>
+          <t>沪太路3100号 尚大国际</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.01.06 11:00-01.07 18:00</t>
+          <t>2024.01.27 12:00-01.27 18:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1551</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>127</v>
+      </c>
+      <c r="G14" t="n">
+        <v>68</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78791&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80548</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/dQ4DrxCk1704683144116.png</t>
         </is>
       </c>
     </row>
@@ -3590,38 +4483,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.01.06</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上海·罗小黑 x HAPPY ZOO主题Cafe</t>
+          <t>上海·Azurock」Azurose ACG Cover Live</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>南京东路340号 百联zx创趣场</t>
+          <t>愚园路1398号 育音堂音乐公园</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.01.06 00:00-01.31 23:59</t>
+          <t>2024.01.27 19:00-01.27 21:30</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>434</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+        <v>59</v>
+      </c>
+      <c r="G15" t="n">
+        <v>88</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80171&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80277</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/5d6O1Rf11703742965244.png</t>
         </is>
       </c>
     </row>
@@ -3631,38 +4527,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上海 ·WOW潮元 原神主题二次元音乐派对</t>
+          <t>上海·SISPmini动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>政通路189号五角场万达广场C栋 元气森林livehouse</t>
+          <t>剑川路1000号 龙湖上海闵行天街</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.01.13 14:00-01.13 19:00</t>
+          <t>2024.01.27 13:00-01.28 19:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>148</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
+        <v>387</v>
+      </c>
+      <c r="G16" t="n">
+        <v>48</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80167&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79046</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/tprwYGIB1705976768947.jpeg</t>
         </is>
       </c>
     </row>
@@ -3672,38 +4571,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上海·代号鸢广陵江东联合only</t>
+          <t>上海·同好召集令火影only</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>逸仙路270号  上海宝丰联大酒店</t>
+          <t>市真南路1199弄1号 智创TOP综合体产城</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 18:00</t>
+          <t>2024.01.27 10:00-01.28 18:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>209</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>536</v>
+      </c>
+      <c r="G17" t="n">
+        <v>78</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79877&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80284</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/9xGb6MXN1704183627126.jpeg</t>
         </is>
       </c>
     </row>
@@ -3713,38 +4615,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上海·月遇国乙+代号鸢only</t>
+          <t>上海·咒术only-幽暗之森1.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>汶水路40号 格乐利雅GALLERIA艺术中心(大宁店)</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.01.13 10:40-01.13 21:00</t>
+          <t>2024.01.27 10:00-01.27 16:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>357</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+        <v>248</v>
+      </c>
+      <c r="G18" t="n">
+        <v>59</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79833&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80045</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/hUfcrw3y1703055422885.jpeg</t>
         </is>
       </c>
     </row>
@@ -3754,38 +4659,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上海·灵能百分百ONLY</t>
+          <t>上海·日本原版《数码宝贝舞台剧：游乐园之谜》</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>长江路258号 中成智谷</t>
+          <t>茂名南路57号近长乐路 上海兰心大戏院</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 16:30</t>
+          <t>2024.01.27 15:30-01.27 20:55</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>230</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="G19" t="n">
+        <v>120</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80008&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79783</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/S6nZ327b1702534484951.jpeg</t>
         </is>
       </c>
     </row>
@@ -3795,38 +4703,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上海·第五十二届妖漫动漫游戏展</t>
+          <t>上海·第八届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>漕溪北路339号百脑汇4楼 百脑汇</t>
+          <t>吴中路1588号上海爱琴海购物中心F4 竞梦元宇宙</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.01.13 11:00-01.14 18:00</t>
+          <t>2024.01.27 10:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1131</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+        <v>1166</v>
+      </c>
+      <c r="G20" t="n">
+        <v>68</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80235&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80979</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/xPOF923U1705545223366.jpeg</t>
         </is>
       </c>
     </row>
@@ -3836,38 +4747,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上海·第五十届燃梦星辰动漫展-原X铁X崩免费同好交流会</t>
+          <t>上海·魔都寒假漫展-CF01</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>云台路800号 亿丰时代广场</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.01.13 11:00-01.14 16:30</t>
+          <t>2024.01.27 10:00-01.28 16:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>655</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>919</v>
+      </c>
+      <c r="G21" t="n">
+        <v>49</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80382&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80204</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/eK96fdcg1703573110264.jpeg</t>
         </is>
       </c>
     </row>
@@ -3877,38 +4791,41 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.01.14</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上海·1.14想见你光夜only</t>
+          <t>上海•Risa Yuzuki 1st ONEMAN LIVE 「Future Interlink」 追加公演</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>汶水路210号 日本嘉美麓德婚礼公馆(大宁店)</t>
+          <t>愚园路1250号 新歌空间</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.01.14 09:30-01.14 21:30</t>
+          <t>2024.01.27 18:30-01.27 21:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>444</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>298</v>
+      </c>
+      <c r="G22" t="n">
+        <v>278</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79284&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77773</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202310/XKKYWAk51698315607196.png</t>
         </is>
       </c>
     </row>
@@ -3918,38 +4835,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.01.19</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上海·音乐剧《三星堆》</t>
+          <t>上海 ·WOW潮元原神x星铁主题二次元狂欢派对</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>汾阳路6号 上音歌剧院</t>
+          <t>政通路189号五角场万达广场C栋 元气森林livehouse</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.01.19 19:30-01.21 22:00</t>
+          <t>2024.01.28 14:00-01.28 19:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
+        <v>426</v>
+      </c>
+      <c r="G23" t="n">
+        <v>129</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79832&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80167</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/QTp32HEM1705028548091.jpeg</t>
         </is>
       </c>
     </row>
@@ -3959,38 +4879,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上海·排球少年X蓝锁X灌篮ONLY</t>
+          <t>上海·寻迹冬日LOVELIVE同好会</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>逸仙路270号  上海宝丰联大酒店</t>
+          <t>愚园路1250号 新歌空间</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.01.31 11:30-01.31 17:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>724</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>184</v>
+      </c>
+      <c r="G24" t="n">
+        <v>83</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79261&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79332</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/Ewreg1JT1701677993728.jpeg</t>
         </is>
       </c>
     </row>
@@ -4000,38 +4923,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上海·赛马娘party·华亭迎春</t>
+          <t>上海·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>淞宝路96号化成路淞宝路 新长江大酒店</t>
+          <t>中兴路1683号金融街购物中心L3-27 蜚声上海Livehouse</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.02.02 12:30-02.02 21:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>68</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>624</v>
+      </c>
+      <c r="G25" t="n">
+        <v>380</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80384&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80128</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/DEW1XYty1703226993965.jpeg</t>
         </is>
       </c>
     </row>
@@ -4041,38 +4967,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上海·霓虹次元·运动番ONLY夜场2.0</t>
+          <t>上海·Coser迎春动漫展</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>万航渡路849号海森国际大厦3楼 Miss Club</t>
+          <t>海潮路133号B1 JUMP工坊</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.01.20 16:30-01.20 21:30</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>207</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
+        <v>659</v>
+      </c>
+      <c r="G26" t="n">
+        <v>60</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80234&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80646</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/4WVkFc4d1704787729064.jpeg</t>
         </is>
       </c>
     </row>
@@ -4082,38 +5011,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024.01.23</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上海·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>上海·偶像梦幻祭红白歌合战Only</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>嘉兴路街道瑞虹路188号瑞虹天地月亮湾3层 Modern Sky LAB摩登天空(瑞虹天地店)</t>
+          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.01.23 20:00-01.23 22:00</t>
+          <t>2024.02.03 13:30-02.03 22:00</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>73</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="G27" t="n">
+        <v>88</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79641&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81199</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/C7E7svbZ1705903245860.jpeg</t>
         </is>
       </c>
     </row>
@@ -4123,38 +5055,41 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024.01.26</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
+          <t>上海·寒假CF漫展-春节档-神龙在世</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>丁香路425号 上海东方艺术中心</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.01.26 19:30-01.26 21:30</t>
+          <t>2024.02.10 10:00-02.17 16:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>130</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>49</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78418&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81192</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/S8XxkA631705896741998.jpeg</t>
         </is>
       </c>
     </row>
@@ -4164,38 +5099,41 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上海·Azurock」Azurose ACG Cover Live</t>
+          <t>上海·魔都COS漫展-情人节专场AM01</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>愚园路1398号 育音堂音乐公园</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.01.27 19:00-01.27 21:30</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+        <v>89</v>
+      </c>
+      <c r="G29" t="n">
+        <v>49</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80277&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80691</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/aSdjV6Kw1704868345679.jpeg</t>
         </is>
       </c>
     </row>
@@ -4205,38 +5143,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上海·SISPmini动漫游戏嘉年华</t>
+          <t>上海·第九届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>淞虹路377号 长宁ArtPark大融城</t>
+          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.01.27 13:00-01.28 19:00</t>
+          <t>2024.02.16 11:00-02.17 18:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>174</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>1207</v>
+      </c>
+      <c r="G30" t="n">
+        <v>65.90000000000001</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79046&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80497</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/0duSXTQy1704423309244.jpeg</t>
         </is>
       </c>
     </row>
@@ -4246,38 +5187,41 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上海·同好召集令火影only</t>
+          <t>上海·少女番only2.0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>市真南路1199弄1号 智创TOP综合体产城</t>
+          <t>营口路699号(黄兴公园地铁站2号口旁) 花嫁丽舍</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 18:00</t>
+          <t>2024.02.17 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>221</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>208</v>
+      </c>
+      <c r="G31" t="n">
+        <v>80</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80284&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81148</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/j6eEZ18S1705657346664.jpeg</t>
         </is>
       </c>
     </row>
@@ -4287,38 +5231,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上海·咒术only-幽暗之森1.0</t>
+          <t>上海·SISP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>年家浜路518号 周浦万达广场</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 16:00</t>
+          <t>2024.02.24 13:00-02.25 19:00</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>146</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+        <v>114</v>
+      </c>
+      <c r="G32" t="n">
+        <v>48</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80045&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80339</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/a8iuOufB1703832570508.jpeg</t>
         </is>
       </c>
     </row>
@@ -4328,38 +5275,41 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上海·魔都寒假漫展-CF01</t>
+          <t>上海·第三届燃梦BACG PRO游戏动漫展-原X铁X崩同好交流</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 16:00</t>
+          <t>2024.02.24 11:00-02.25 16:30</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>260</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>2475</v>
+      </c>
+      <c r="G33" t="n">
+        <v>65.8</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80204&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77754</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/7eGZETK91701943985671.jpeg</t>
         </is>
       </c>
     </row>
@@ -4369,38 +5319,41 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上海•Risa Yuzuki 1st ONEMAN LIVE 「Future Interlink」 追加公演</t>
+          <t>上海·青山吉能见面会</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>愚园路1250号 新歌空间</t>
+          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024.01.27 18:30-01.27 21:00</t>
+          <t>2024.02.25 14:30-02.25 19:30</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>268</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>278</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="G34" t="n">
+        <v>380</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77773&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80142</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/1npuHFBM1703231674558.jpeg</t>
         </is>
       </c>
     </row>
@@ -4410,38 +5363,41 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上海·Comic World动漫游园会</t>
+          <t>上海·原神X星穹铁道ONLY</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>康梧路519号2门 猩际野球室内足球馆</t>
+          <t>逸仙路301号靠纪念路路口 上海宝丰联大酒店</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024.01.28 09:30-01.28 17:00</t>
+          <t>2024.03.02 10:00-03.02 17:00</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1408</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>249</v>
+      </c>
+      <c r="G35" t="n">
+        <v>60</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78523&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80299</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/V0xu26Cl1703753850690.jpeg</t>
         </is>
       </c>
     </row>
@@ -4451,38 +5407,41 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024.01.31</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上海·寻迹冬日LOVELIVE同好会</t>
+          <t>上海·小山百代2024上海粉丝见面会</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>愚园路1250号 新歌空间</t>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024.01.31 11:30-01.31 17:00</t>
+          <t>2024.03.02 13:00-03.02 20:00</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>137</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+        <v>232</v>
+      </c>
+      <c r="G36" t="n">
+        <v>380</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79332&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80924</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/FpA9OkKy1705467080070.jpeg</t>
         </is>
       </c>
     </row>
@@ -4492,38 +5451,41 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024.02.02</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上海·次元LAB 二次元电音节</t>
+          <t>上海·怀旧番ONLY</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>中兴路1683号金融街购物中心L3-27 蜚声上海Livehouse</t>
+          <t>逸仙路270号  上海宝丰联大酒店</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024.02.02 12:30-02.02 21:00</t>
+          <t>2024.03.03 10:00-03.03 17:00</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>428</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>129</v>
+      </c>
+      <c r="G37" t="n">
+        <v>60</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80128&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80575</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/y4uWdyPT1704700763902.jpeg</t>
         </is>
       </c>
     </row>
@@ -4533,38 +5495,41 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上海·第七届次元鹿角动漫游戏展</t>
+          <t>上海·S·CGE动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>长宁路1191号长宁来福士B1 长宁来福士</t>
+          <t>军工路1076号 纪希片场(秀场)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>62</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="G38" t="n">
+        <v>70</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79938&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81173</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/TYA5FLkE1705891815532.jpeg</t>
         </is>
       </c>
     </row>
@@ -4574,38 +5539,41 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上海·第九届次元鹿角动漫游戏展</t>
+          <t>上海·第五十三届燃梦星辰动漫嘉年华-随机宅舞</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
+          <t>周家嘴路3608号 宝龙旭辉广场</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024.02.16 11:00-02.17 18:00</t>
+          <t>2024.03.09 10:20-03.10 16:30</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="G39" t="n">
+        <v>58</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80497&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80571</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/SHH70VXN1704700240858.jpeg</t>
         </is>
       </c>
     </row>
@@ -4615,38 +5583,41 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上海·SISP动漫游戏嘉年华</t>
+          <t>上海·青山刚昌ONLY【名侦探柯南&amp;魔术快斗】</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>年家浜路518号 周浦万达广场</t>
+          <t>漕宝路1688号 诺宝中心酒店</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024.02.24 13:00-02.25 19:00</t>
+          <t>2024.03.09 10:00-03.09 16:30</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>46</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>872</v>
+      </c>
+      <c r="G40" t="n">
+        <v>73</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80339&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=76410</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202309/fVXMrcHy1693971682397.jpeg</t>
         </is>
       </c>
     </row>
@@ -4656,38 +5627,41 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上海·第三届燃梦BACG PRO游戏动漫展</t>
+          <t>上海·三月的幻想演唱会2024「飞越蓝色时刻」</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024.02.24 11:00-02.25 16:30</t>
+          <t>2024.03.16 19:00-03.16 20:30</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2198</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="G41" t="n">
+        <v>380</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77754&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80811</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/TO6xpSqr1705289483473.png</t>
         </is>
       </c>
     </row>
@@ -4697,38 +5671,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024.02.25</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上海·青山吉能见面会</t>
+          <t>上海·坏孩纸物语の第33届动漫节之庄子篇</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
+          <t>中山北路3300号4楼L4001号 环球港上海世嘉都市乐园</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024.02.25 14:30-02.25 19:30</t>
+          <t>2024.03.16 10:00-03.17 21:00</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>167</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80142&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81138</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/jpr1lCt21705652306481.png</t>
         </is>
       </c>
     </row>
@@ -4738,38 +5715,41 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上海·原神X星穹铁道ONLY</t>
+          <t>上海· TRUE（唐沢美帆）上海动漫交响音乐会</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>逸仙路301号靠纪念路路口 上海宝丰联大酒店</t>
+          <t>丁香路425号 上海东方艺术中心</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.02 17:00</t>
+          <t>2024.03.30 19:30-03.30 21:00</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>106</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>145</v>
+      </c>
+      <c r="G43" t="n">
+        <v>280</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80299&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80906</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/FaJbLvS51705401178235.jpeg</t>
         </is>
       </c>
     </row>
@@ -4779,38 +5759,41 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024.03.09</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上海·青山刚昌ONLY【名侦探柯南&amp;魔术快斗】</t>
+          <t>上海· TRUE（唐沢美帆）上海动漫交响音乐会</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>漕宝路1688号 诺宝中心酒店</t>
+          <t>丁香路425号 上海东方艺术中心</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.09 16:30</t>
+          <t>2024.03.30 19:30-03.30 21:00</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>764</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+        <v>145</v>
+      </c>
+      <c r="G44" t="n">
+        <v>280</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76410&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80906</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/FaJbLvS51705401178235.jpeg</t>
         </is>
       </c>
     </row>
@@ -4820,38 +5803,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024.04.06</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
+          <t>上海·第四届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>复兴中路1380号 捷豹上海交响音乐厅</t>
+          <t>顾村镇蕰川路6号 智慧湾科创园</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024.04.06 19:30-04.06 21:30</t>
+          <t>2024.04.05 10:00-04.06 17:00</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>9</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>60</v>
+      </c>
+      <c r="G45" t="n">
+        <v>60</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80050&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78228</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202311/jgqIFxhx1699344723568.jpeg</t>
         </is>
       </c>
     </row>
@@ -4861,38 +5847,41 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024.04.13</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上海·《四月是你的谎言》——“公生”与“薰”的钢琴小提琴唯美经典音乐集</t>
+          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>丁香路425号 上海东方艺术中心</t>
+          <t>复兴中路1380号 捷豹上海交响音乐厅</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024.04.13 19:30-04.13 21:30</t>
+          <t>2024.04.06 19:30-04.06 21:30</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>129</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="G46" t="n">
+        <v>80</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78667&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80050</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/0iJP3TY61703056498448.jpeg</t>
         </is>
       </c>
     </row>
@@ -4902,38 +5891,41 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上海·  第五十三届妖漫动漫游戏展</t>
+          <t>上海·《四月是你的谎言》——“公生”与“薰”的钢琴小提琴唯美经典音乐集</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>安蒲汇塘路50号 安垦徐汇创意园</t>
+          <t>丁香路425号 上海东方艺术中心</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
+          <t>2024.04.13 19:30-04.13 21:30</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>71</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>172</v>
+      </c>
+      <c r="G47" t="n">
+        <v>80</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78657&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78667</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202311/bTP7w6GD1700130122940.jpeg</t>
         </is>
       </c>
     </row>
@@ -4943,38 +5935,173 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>上海· 夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>东大名路889号 友邦大剧院</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024.04.26 19:30-04.26 21:30</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="n">
+        <v>280</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81139</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/0Fj4cYOH1705652393930.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上海·  第五十三届妖漫动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>曹杨路1888号 复悦荟</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024.04.27 10:00-04.27 17:00</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>146</v>
+      </c>
+      <c r="G49" t="n">
+        <v>80</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78657</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/tamNdgEN1705331335847.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上海·S·CGE动漫游戏嘉年华</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>军工路1076号 纪希片场(秀场)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.02 17:00</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>70</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81204</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/nbFRULYe1705904589212.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>上海·魔都野良神only</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>南京东路830号 第一百货</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2024.05.01 10:00-05.01 17:00</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>38</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80321&amp;msource=Msearch_colligation</t>
+      <c r="F51" t="n">
+        <v>186</v>
+      </c>
+      <c r="G51" t="n">
+        <v>79</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80321</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/KBlb0enU1704358750268.jpeg</t>
         </is>
       </c>
     </row>

--- a/漫展信息/上海-漫展信息.xlsx
+++ b/漫展信息/上海-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -511,20 +506,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G2" t="n">
         <v>139</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77862</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77862</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202310/QnmD4yOd1698652192047.jpeg</t>
         </is>
@@ -555,20 +547,17 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
         <v>80</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78809</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78809</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202311/YsBoZAOW1700551290654.jpeg</t>
         </is>
@@ -599,20 +588,17 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1673</v>
+        <v>1693</v>
       </c>
       <c r="G4" t="n">
         <v>55</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79166</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79166</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202311/MjTiIYlk1701242361853.jpeg</t>
         </is>
@@ -629,36 +615,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上海·25时主题同人茶会</t>
+          <t>上海·同好召集令火影only</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沪太路3100号 尚大国际</t>
+          <t>市真南路1199弄1号 智创TOP综合体产城</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.27 12:00-01.27 18:00</t>
+          <t>2024.01.27 10:00-01.28 18:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>127</v>
+        <v>574</v>
       </c>
       <c r="G5" t="n">
-        <v>68</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80284</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80548</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/dQ4DrxCk1704683144116.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/9xGb6MXN1704183627126.jpeg</t>
         </is>
       </c>
     </row>
@@ -673,36 +656,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上海·SISPmini动漫游戏嘉年华</t>
+          <t>上海·第八届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>剑川路1000号 龙湖上海闵行天街</t>
+          <t>吴中路1588号上海爱琴海购物中心F4 竞梦元宇宙</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.27 13:00-01.28 19:00</t>
+          <t>2024.01.27 10:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>387</v>
+        <v>1237</v>
       </c>
       <c r="G6" t="n">
-        <v>48</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80979</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79046</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/tprwYGIB1705976768947.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/xPOF923U1705545223366.jpeg</t>
         </is>
       </c>
     </row>
@@ -717,36 +697,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上海·同好召集令火影only</t>
+          <t>上海·魔都寒假漫展-CF01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>市真南路1199弄1号 智创TOP综合体产城</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 18:00</t>
+          <t>2024.01.27 10:00-01.28 16:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>536</v>
+        <v>1019</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80204</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80284</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/9xGb6MXN1704183627126.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/eK96fdcg1703573110264.jpeg</t>
         </is>
       </c>
     </row>
@@ -756,41 +733,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上海·咒术only-幽暗之森1.0</t>
+          <t>上海 ·WOW潮元原神x星铁主题二次元狂欢派对</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>政通路189号五角场万达广场C栋 元气森林livehouse</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 16:00</t>
+          <t>2024.01.28 14:00-01.28 19:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>248</v>
+        <v>456</v>
       </c>
       <c r="G8" t="n">
-        <v>59</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80167</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80045</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/hUfcrw3y1703055422885.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/QTp32HEM1705028548091.jpeg</t>
         </is>
       </c>
     </row>
@@ -800,41 +774,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上海·第八届次元鹿角动漫游戏展</t>
+          <t>上海·Comic World动漫游园会（取消）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>吴中路1588号上海爱琴海购物中心F4 竞梦元宇宙</t>
+          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 21:00</t>
+          <t>2024.01.28 09:30-01.28 17:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1166</v>
-      </c>
-      <c r="G9" t="n">
-        <v>68</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>2220</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78523</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80979</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/xPOF923U1705545223366.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/HAkxl2611705480975408.jpeg</t>
         </is>
       </c>
     </row>
@@ -844,41 +817,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上海·魔都寒假漫展-CF01</t>
+          <t>上海·坏孩纸物语の第32届动漫节之冬日季</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>剑川路1000号 闵行龙湖天街</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 16:00</t>
+          <t>2024.01.28 14:00-01.28 20:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>919</v>
+        <v>744</v>
       </c>
       <c r="G10" t="n">
-        <v>49</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+        <v>36.9</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80871</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80204</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/eK96fdcg1703573110264.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/5fmQrQJ81705573963752.png</t>
         </is>
       </c>
     </row>
@@ -893,36 +863,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上海 ·WOW潮元原神x星铁主题二次元狂欢派对</t>
+          <t>上海·次元裂缝-X 新年二次元偶像日</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>政通路189号五角场万达广场C栋 元气森林livehouse</t>
+          <t>海潮路133号B1 JUMP工坊</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.28 14:00-01.28 19:00</t>
+          <t>2024.01.28 14:00-01.28 18:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>426</v>
+        <v>89</v>
       </c>
       <c r="G11" t="n">
-        <v>129</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80999</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80167</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/QTp32HEM1705028548091.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/lNroHqJY1705549448993.jpeg</t>
         </is>
       </c>
     </row>
@@ -932,41 +899,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上海·Comic World动漫游园会（取消）</t>
+          <t>上海·寻迹冬日LOVELIVE同好会</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
+          <t>愚园路1250号 新歌空间</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.28 09:30-01.28 17:00</t>
+          <t>2024.01.31 11:30-01.31 17:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2223</v>
+        <v>194</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79332</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78523</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/HAkxl2611705480975408.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/Ewreg1JT1701677993728.jpeg</t>
         </is>
       </c>
     </row>
@@ -976,41 +940,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上海·坏孩纸物语の第32届动漫节之冬日季</t>
+          <t>上海·Coser迎春动漫展</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>剑川路1000号 闵行龙湖天街</t>
+          <t>海潮路133号B1 JUMP工坊</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.28 14:00-01.28 20:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>641</v>
+        <v>855</v>
       </c>
       <c r="G13" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80646</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80871</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/5fmQrQJ81705573963752.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/4WVkFc4d1704787729064.jpeg</t>
         </is>
       </c>
     </row>
@@ -1020,41 +981,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上海·次元裂缝-X 新年二次元偶像日</t>
+          <t>上海·ENP电次元派对vol.04</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>海潮路133号B1 JUMP工坊</t>
+          <t>人民大道221号 迪美购物中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.01.28 14:00-01.28 18:00</t>
+          <t>2024.02.03 18:30-02.03 22:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80945</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80999</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/lNroHqJY1705549448993.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/1sjalWS51705479361512.jpeg</t>
         </is>
       </c>
     </row>
@@ -1064,41 +1022,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上海·寻迹冬日LOVELIVE同好会</t>
+          <t>上海·偶像梦幻祭红白歌合战Only</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>愚园路1250号 新歌空间</t>
+          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.01.31 11:30-01.31 17:00</t>
+          <t>2024.02.03 13:30-02.03 22:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G15" t="n">
-        <v>83</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81199</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79332</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/Ewreg1JT1701677993728.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/C7E7svbZ1705903245860.jpeg</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1068,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上海·Coser迎春动漫展</t>
+          <t>上海·第七届次元鹿角二次元派对</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>海潮路133号B1 JUMP工坊</t>
+          <t>长宁路1191号来福士西区(W)B1层01号、11号 星零界</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1127,22 +1082,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>659</v>
+        <v>1331</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79938</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80646</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/4WVkFc4d1704787729064.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/b1XT2w4T1705027781100.jpeg</t>
         </is>
       </c>
     </row>
@@ -1152,41 +1104,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上海·ENP电次元派对vol.04</t>
+          <t>上海·寒假CF漫展-春节档-神龙在世</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>人民大道221号 迪美购物中心</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.02.03 18:30-02.03 22:00</t>
+          <t>2024.02.10 10:00-02.17 16:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G17" t="n">
-        <v>99</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81192</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80945</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/1sjalWS51705479361512.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/S8XxkA631705896741998.jpeg</t>
         </is>
       </c>
     </row>
@@ -1196,41 +1145,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上海·偶像梦幻祭红白歌合战Only</t>
+          <t>上海·原X铁X崩only</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
+          <t>澳门路168号 月星国际家居</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.02.03 13:30-02.03 22:00</t>
+          <t>2024.02.14 10:30-02.14 16:30</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>88</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81446</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81199</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/C7E7svbZ1705903245860.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/IIePRulM1706248855263.jpeg</t>
         </is>
       </c>
     </row>
@@ -1240,41 +1186,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上海·第七届次元鹿角二次元派对</t>
+          <t>上海·奇卡波利动漫嘉年华</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>长宁路1191号来福士西区(W)B1层01号、11号 星零界</t>
+          <t>申滨路36号 虹桥丽宝广场</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1296</v>
+        <v>67</v>
       </c>
       <c r="G19" t="n">
-        <v>98</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
+        <v>48.8</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81260</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79938</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/b1XT2w4T1705027781100.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/9OHovK2V1705978109130.jpeg</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1227,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上海·寒假CF漫展-春节档-神龙在世</t>
+          <t>上海·魔都COS漫展-情人节专场AM01</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1299,26 +1242,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.02.10 10:00-02.17 16:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="G20" t="n">
         <v>49</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80691</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81192</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/S8XxkA631705896741998.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/aSdjV6Kw1704868345679.jpeg</t>
         </is>
       </c>
     </row>
@@ -1328,41 +1268,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上海·奇卡波利动漫嘉年华</t>
+          <t>上海·次元裂缝-X 新年anikura派对</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>申滨路36号 虹桥丽宝广场</t>
+          <t>海潮路133号B1 JUMP工坊</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
+          <t>2024.02.16 14:00-02.16 19:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81314</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81260</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/9OHovK2V1705978109130.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/OrhHWKdR1706062360956.jpeg</t>
         </is>
       </c>
     </row>
@@ -1372,41 +1309,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上海·魔都COS漫展-情人节专场AM01</t>
+          <t>上海·第九届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 16:00</t>
+          <t>2024.02.16 11:00-02.17 18:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>89</v>
+        <v>1250</v>
       </c>
       <c r="G22" t="n">
-        <v>49</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
+        <v>65.90000000000001</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80497</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80691</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/aSdjV6Kw1704868345679.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/0duSXTQy1704423309244.jpeg</t>
         </is>
       </c>
     </row>
@@ -1416,41 +1350,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上海·第九届次元鹿角动漫游戏展</t>
+          <t>上海·少女番only2.0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
+          <t>营口路699号(黄兴公园地铁站2号口旁) 花嫁丽舍</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.02.16 11:00-02.17 18:00</t>
+          <t>2024.02.17 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1207</v>
+        <v>349</v>
       </c>
       <c r="G23" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81148</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80497</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/0duSXTQy1704423309244.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/j6eEZ18S1705657346664.jpeg</t>
         </is>
       </c>
     </row>
@@ -1460,41 +1391,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上海·少女番only2.0</t>
+          <t>上海·SISPmini动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>营口路699号(黄兴公园地铁站2号口旁) 花嫁丽舍</t>
+          <t>剑川路1000号 龙湖上海闵行天街</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.17 17:00</t>
+          <t>2024.02.24 13:00-02.25 19:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>208</v>
+        <v>426</v>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79046</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81148</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/j6eEZ18S1705657346664.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/jzovdppq1706166165502.jpeg</t>
         </is>
       </c>
     </row>
@@ -1523,20 +1451,17 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G25" t="n">
         <v>48</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80339</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80339</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/a8iuOufB1703832570508.jpeg</t>
         </is>
@@ -1553,36 +1478,33 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上海·第三届燃梦BACG PRO游戏动漫展-原X铁X崩同好交流</t>
+          <t>上海·原神×崩坏×星铁only旅行盛宴2.0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
+          <t>西藏南路1号 上海大世界</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.02.24 11:00-02.25 16:30</t>
+          <t>2024.02.24 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2475</v>
+        <v>118</v>
       </c>
       <c r="G26" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81276</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77754</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/7eGZETK91701943985671.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/82hU3z8m1706155835021.png</t>
         </is>
       </c>
     </row>
@@ -1597,36 +1519,33 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上海·魔都元宵节漫展-COS为王</t>
+          <t>上海·第三届燃梦BACG PRO游戏动漫展-原X铁X崩同好交流</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.25 16:00</t>
+          <t>2024.02.24 11:00-02.25 16:30</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>2511</v>
       </c>
       <c r="G27" t="n">
-        <v>49</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
+        <v>65.8</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77754</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81238</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/KxQZPADR1705913896609.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/7eGZETK91701943985671.jpeg</t>
         </is>
       </c>
     </row>
@@ -1636,41 +1555,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上海·原神X星穹铁道ONLY</t>
+          <t>上海·趣元界&amp;斗罗大陆上元佳节次元派对</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>逸仙路301号靠纪念路路口 上海宝丰联大酒店</t>
+          <t>长宁路1191号长宁来福士B1 长宁来福士</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.02 17:00</t>
+          <t>2024.02.24 11:30-02.25 17:30</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>249</v>
+        <v>509</v>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81415</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80299</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/V0xu26Cl1703753850690.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/yis4JHfE1706169986733.jpeg</t>
         </is>
       </c>
     </row>
@@ -1680,41 +1596,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上海·怀旧番ONLY</t>
+          <t>上海·魔都元宵节漫展-COS为王</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>逸仙路270号  上海宝丰联大酒店</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.03.03 10:00-03.03 17:00</t>
+          <t>2024.02.24 10:00-02.25 16:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>60</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81238</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80575</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/y4uWdyPT1704700763902.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/KxQZPADR1705913896609.jpeg</t>
         </is>
       </c>
     </row>
@@ -1724,41 +1637,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上海·S·CGE动漫游戏嘉年华</t>
+          <t>上海·魔都多厨狂喜漫展-CH01</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>军工路1076号 纪希片场(秀场)</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
+          <t>2024.02.24 10:00-02.25 16:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>70</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81423</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81173</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/TYA5FLkE1705891815532.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/axpOY3zo1706173660010.jpeg</t>
         </is>
       </c>
     </row>
@@ -1768,41 +1678,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上海·第五十三届燃梦星辰动漫嘉年华-随机宅舞</t>
+          <t>上海·原神X星穹铁道ONLY</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>周家嘴路3608号 宝龙旭辉广场</t>
+          <t>逸仙路301号靠纪念路路口 上海宝丰联大酒店</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.03.09 10:20-03.10 16:30</t>
+          <t>2024.03.02 10:00-03.02 17:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="G31" t="n">
-        <v>58</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80299</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80571</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/SHH70VXN1704700240858.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/V0xu26Cl1703753850690.jpeg</t>
         </is>
       </c>
     </row>
@@ -1812,41 +1719,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上海·青山刚昌ONLY【名侦探柯南&amp;魔术快斗】</t>
+          <t>上海·怀旧番ONLY</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>漕宝路1688号 诺宝中心酒店</t>
+          <t>逸仙路270号  上海宝丰联大酒店</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.09 16:30</t>
+          <t>2024.03.03 10:00-03.03 17:00</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>872</v>
+        <v>152</v>
       </c>
       <c r="G32" t="n">
-        <v>73</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80575</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76410</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202309/fVXMrcHy1693971682397.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/y4uWdyPT1704700763902.jpeg</t>
         </is>
       </c>
     </row>
@@ -1856,41 +1760,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上海·坏孩纸物语の第33届动漫节之庄子篇</t>
+          <t>上海·第八届ACBC动漫盛典-国潮汉服游园会</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>中山北路3300号4楼L4001号 环球港上海世嘉都市乐园</t>
+          <t>浦锦南路1586弄2号 奇迹花园</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.17 21:00</t>
+          <t>2024.03.08 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81456</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81138</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/jpr1lCt21705652306481.png</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/qZtpawf51706254849667.jpeg</t>
         </is>
       </c>
     </row>
@@ -1900,41 +1801,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上海·第四届次元鹿角动漫游戏展</t>
+          <t>上海·S·CGE动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>顾村镇蕰川路6号 智慧湾科创园</t>
+          <t>军工路1076号 纪希片场(秀场)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024.04.05 10:00-04.06 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G34" t="n">
-        <v>60</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81173</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78228</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202311/jgqIFxhx1699344723568.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/TYA5FLkE1705891815532.jpeg</t>
         </is>
       </c>
     </row>
@@ -1944,41 +1842,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上海·  第五十三届妖漫动漫游戏展</t>
+          <t>上海·第五十三届燃梦星辰动漫嘉年华-随机宅舞</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>曹杨路1888号 复悦荟</t>
+          <t>周家嘴路3608号 宝龙旭辉广场</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024.04.27 10:00-04.27 17:00</t>
+          <t>2024.03.09 10:20-03.10 16:30</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="G35" t="n">
-        <v>80</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80571</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78657</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/tamNdgEN1705331335847.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/SHH70VXN1704700240858.jpeg</t>
         </is>
       </c>
     </row>
@@ -1988,41 +1883,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上海·S·CGE动漫游戏嘉年华</t>
+          <t>上海·青山刚昌ONLY【名侦探柯南&amp;魔术快斗】</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>军工路1076号 纪希片场(秀场)</t>
+          <t>漕宝路1688号 诺宝中心酒店</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
+          <t>2024.03.09 10:00-03.09 16:30</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>893</v>
       </c>
       <c r="G36" t="n">
-        <v>70</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=76410</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81204</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/nbFRULYe1705904589212.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202309/fVXMrcHy1693971682397.jpeg</t>
         </is>
       </c>
     </row>
@@ -2032,41 +1924,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上海·魔都野良神only</t>
+          <t>上海·坏孩纸物语の第33届动漫节之庄子篇</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>南京东路830号 第一百货</t>
+          <t>中山北路3300号4楼L4001号 环球港上海世嘉都市乐园</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.01 17:00</t>
+          <t>2024.03.16 10:00-03.17 21:00</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="G37" t="n">
-        <v>79</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81138</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80321</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/KBlb0enU1704358750268.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/jpr1lCt21705652306481.png</t>
         </is>
       </c>
     </row>
@@ -2076,39 +1965,200 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上海·第四届次元鹿角动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>顾村镇蕰川路6号 智慧湾科创园</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024.04.05 10:00-04.06 17:00</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>63</v>
+      </c>
+      <c r="G38" t="n">
+        <v>60</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78228</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202311/jgqIFxhx1699344723568.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上海·  第五十三届妖漫动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>曹杨路1888号 复悦荟</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024.04.27 10:00-04.27 17:00</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>149</v>
+      </c>
+      <c r="G39" t="n">
+        <v>80</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78657</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/tamNdgEN1705331335847.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上海·S·CGE动漫游戏嘉年华</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>军工路1076号 纪希片场(秀场)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.02 17:00</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>17</v>
+      </c>
+      <c r="G40" t="n">
+        <v>70</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81204</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/nbFRULYe1705904589212.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上海·魔都野良神only</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>南京东路830号 第一百货</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.01 17:00</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>209</v>
+      </c>
+      <c r="G41" t="n">
+        <v>79</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80321</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/KBlb0enU1704358750268.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>2024-05-05</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>上海·灌篮高手--青春永不散场</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>逸仙路1328弄 新业坊</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2024.05.05 10:00-05.05 17:00</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>11</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="F42" t="n">
+        <v>15</v>
+      </c>
+      <c r="G42" t="n">
         <v>89</v>
       </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80835</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/hdaVclFC1705301931054.jpeg</t>
         </is>
@@ -2125,7 +2175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,15 +2219,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -2213,15 +2258,12 @@
       <c r="G2" t="n">
         <v>90</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80057</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80057</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202312/AeWGG9Rk1703131189224.jpeg</t>
         </is>
@@ -2252,20 +2294,17 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80103</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80103</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202312/2h2tIq7l1703144874867.png</t>
         </is>
@@ -2298,18 +2337,17 @@
       <c r="F4" t="n">
         <v>50</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79939</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79939</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/hY6FVnjM1702954652593.jpeg</t>
         </is>
@@ -2321,41 +2359,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上海·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>上海·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>嘉兴路街道瑞虹路188号瑞虹天地月亮湾3层 Modern Sky LAB摩登天空(瑞虹天地店)</t>
+          <t>中兴路1683号金融街购物中心L3-27 蜚声上海Livehouse</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.23 20:00-01.23 22:00</t>
+          <t>2024.02.02 12:30-02.02 21:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>91</v>
+        <v>672</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
+        <v>380</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80128</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79641</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/CoNbgCpO1703644783043.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/DEW1XYty1703226993965.jpeg</t>
         </is>
       </c>
     </row>
@@ -2365,41 +2400,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
+          <t>上海·触手猴钢琴巡演·marasy piano live tour『生音』上海站·Powered by 东方弹幕神乐失落幻想</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>丁香路425号 上海东方艺术中心</t>
+          <t>丁香路425号(上海科技馆地铁站1号口步行460米) 上海东方艺术中心音乐厅</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.26 19:30-01.26 21:30</t>
+          <t>2024.02.04 19:30-02.04 21:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>163</v>
+        <v>470</v>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
+        <v>280</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80734</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78418</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202311/GHpvkT5Y1699605760230.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/IcjPp0TE1704951328918.jpeg</t>
         </is>
       </c>
     </row>
@@ -2409,41 +2441,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上海·Azurock」Azurose ACG Cover Live</t>
+          <t>上海·【情人节特辑】《那年我们》记忆重启韩剧经典OST音乐会《请回答1988》《来自星星的你》</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>愚园路1398号 育音堂音乐公园</t>
+          <t>牛庄路704号 中国大戏院</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.27 19:00-01.27 21:30</t>
+          <t>2024.02.14 19:30-02.14 21:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>88</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80615</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80277</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/5d6O1Rf11703742965244.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/5DDVhKcO1704767761361.png</t>
         </is>
       </c>
     </row>
@@ -2453,41 +2482,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上海·日本原版《数码宝贝舞台剧：游乐园之谜》</t>
+          <t>上海·《哈利的魔法世界》动漫视听音乐会</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>茂名南路57号近长乐路 上海兰心大戏院</t>
+          <t>都市路4889号（莘庄地铁站南广场） 上海保利城市剧院</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.27 15:30-01.27 20:55</t>
+          <t>2024.02.24 14:30-02.24 16:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>120</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80639</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79783</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/S6nZ327b1702534484951.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/4PieCC9N1706261750579.jpeg</t>
         </is>
       </c>
     </row>
@@ -2497,41 +2523,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上海•Risa Yuzuki 1st ONEMAN LIVE 「Future Interlink」 追加公演</t>
+          <t>上海·青山吉能见面会</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>愚园路1250号 新歌空间</t>
+          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.27 18:30-01.27 21:00</t>
+          <t>2024.02.25 14:30-02.25 19:30</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="G9" t="n">
-        <v>278</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
+        <v>380</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80142</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77773</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202310/XKKYWAk51698315607196.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/1npuHFBM1703231674558.jpeg</t>
         </is>
       </c>
     </row>
@@ -2541,41 +2564,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上海·次元LAB 二次元电音节</t>
+          <t>上海·2024藤田玲上海粉丝见面会</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>中兴路1683号金融街购物中心L3-27 蜚声上海Livehouse</t>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.02.02 12:30-02.02 21:00</t>
+          <t>2024.03.02 12:30-03.02 19:40</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>624</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>380</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80993</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80128</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/DEW1XYty1703226993965.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Vm6ntgVd1705548188785.png</t>
         </is>
       </c>
     </row>
@@ -2585,41 +2605,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上海·触手猴钢琴巡演·marasy piano live tour『生音』上海站·Powered by 东方弹幕神乐失落幻想</t>
+          <t>上海·小山百代2024上海粉丝见面会</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>丁香路425号(上海科技馆地铁站1号口步行460米) 上海东方艺术中心音乐厅</t>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.02.04 19:30-02.04 21:00</t>
+          <t>2024.03.02 13:00-03.02 20:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="G11" t="n">
-        <v>280</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80924</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80734</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/IcjPp0TE1704951328918.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/FpA9OkKy1705467080070.jpeg</t>
         </is>
       </c>
     </row>
@@ -2629,41 +2646,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上海·【情人节特辑】《那年我们》记忆重启韩剧经典OST音乐会《请回答1988》《来自星星的你》</t>
+          <t>上海·《挪威的森林》—摇滚情歌之夜演唱会</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>牛庄路704号 中国大戏院</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.02.14 19:30-02.14 21:00</t>
+          <t>2024.03.09 19:30-03.09 21:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81241</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80615</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/5DDVhKcO1704767761361.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/1FJ0Fj5m1705915336335.jpeg</t>
         </is>
       </c>
     </row>
@@ -2673,41 +2687,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上海·《哈利的魔法世界》动漫视听音乐会</t>
+          <t>上海·爱乐之城音乐会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>都市路4889号（莘庄地铁站南广场） 上海保利城市剧院</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.02.24 14:30-02.24 16:00</t>
+          <t>2024.03.09 14:00-03.09 15:30</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>158</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81289</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80639</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/dp013A4p1704783993628.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/ZZXtDrwZ1705996679699.jpeg</t>
         </is>
       </c>
     </row>
@@ -2717,41 +2728,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上海·青山吉能见面会</t>
+          <t>上海·三月的幻想演唱会2024「飞越蓝色时刻」</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.02.25 14:30-02.25 19:30</t>
+          <t>2024.03.16 19:00-03.16 20:30</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="G14" t="n">
         <v>380</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80811</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80142</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/1npuHFBM1703231674558.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/TO6xpSqr1705289483473.png</t>
         </is>
       </c>
     </row>
@@ -2761,41 +2769,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上海·2024藤田玲上海粉丝见面会</t>
+          <t>上海 ·《疯狂动物城》动漫视听音乐会</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>宜昌路179号 万代南梦宫上海文化中心</t>
+          <t>牛庄路704号 中国大戏院</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.03.02 12:30-03.02 19:40</t>
+          <t>2024.03.17 15:30-03.17 17:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>580</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81112</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80993</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/Vm6ntgVd1705548188785.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/Wg8b6SRn1705651166088.png</t>
         </is>
       </c>
     </row>
@@ -2805,12 +2810,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上海·小山百代2024上海粉丝见面会</t>
+          <t>上海·amazarashi Asia Tour 2024 「永遠市 -Eternal City-」上海公演</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2820,26 +2825,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.03.02 13:00-03.02 20:00</t>
+          <t>2024.03.17 18:00-03.17 19:30</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>232</v>
+        <v>641</v>
       </c>
       <c r="G16" t="n">
-        <v>380</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
+        <v>480</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81039</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80924</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/FpA9OkKy1705467080070.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/icsawZU11705566039011.jpeg</t>
         </is>
       </c>
     </row>
@@ -2849,41 +2851,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上海·小山百代2024上海粉丝见面会</t>
+          <t>上海·《笑傲江湖》经典武侠影视金曲音乐会</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>宜昌路179号 万代南梦宫上海文化中心</t>
+          <t>牛庄路704号 中国大戏院</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.03.02 13:00-03.02 20:00</t>
+          <t>2024.03.17 19:30-03.17 21:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>380</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80875</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80924</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/FpA9OkKy1705467080070.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/8AwIAy4I1705385447242.jpeg</t>
         </is>
       </c>
     </row>
@@ -2893,41 +2892,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上海·《挪威的森林》—摇滚情歌之夜演唱会</t>
+          <t>上海·遇见新海诚--帝玖「这次一定」室内乐ACG音乐会</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>南京西路1376号 上海商城剧院</t>
+          <t>延安东路523号 凯迪拉克·上海音乐厅</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.03.09 19:30-03.09 21:00</t>
+          <t>2024.03.17 14:00-03.17 16:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>72</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81258</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81241</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/1FJ0Fj5m1705915336335.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/eysvN81k1705977896972.jpeg</t>
         </is>
       </c>
     </row>
@@ -2937,41 +2933,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上海·爱乐之城音乐会</t>
+          <t>上海·春卷饭 十周年  2024  专场演出</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>南京西路1376号 上海商城剧院</t>
+          <t>嘉兴路街道瑞虹路188号瑞虹天地月亮湾3层 Modern Sky LAB摩登天空(瑞虹天地店)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.03.09 14:00-03.09 15:30</t>
+          <t>2024.03.21 20:00-03.21 22:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81190</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81289</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/ZZXtDrwZ1705996679699.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/ho9rIMg21705894649801.jpeg</t>
         </is>
       </c>
     </row>
@@ -2981,41 +2974,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上海·三月的幻想演唱会2024「飞越蓝色时刻」</t>
+          <t>上海·《卡农Canon in D》世界经典作品视听音乐会</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>宜昌路179号 万代南梦宫上海文化中心</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.03.16 19:00-03.16 20:30</t>
+          <t>2024.03.23 19:30-03.23 21:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>380</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81358</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80811</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/TO6xpSqr1705289483473.png</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/Ctne29Xn1706089385959.png</t>
         </is>
       </c>
     </row>
@@ -3025,41 +3015,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上海 ·《疯狂动物城》动漫视听音乐会</t>
+          <t>上海·《四月是你的谎言》友人A经典动漫音乐会</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>牛庄路704号 中国大戏院</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.03.17 15:30-03.17 17:00</t>
+          <t>2024.03.23 15:00-03.23 16:30</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81361</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81112</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/Wg8b6SRn1705651166088.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/wL0ZWVYi1706091574963.png</t>
         </is>
       </c>
     </row>
@@ -3069,41 +3056,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上海·amazarashi Asia Tour 2024 「永遠市 -Eternal City-」上海公演</t>
+          <t>上海· TRUE（唐沢美帆）上海动漫交响音乐会</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>宜昌路179号 万代南梦宫上海文化中心</t>
+          <t>丁香路425号 上海东方艺术中心</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.03.17 18:00-03.17 19:30</t>
+          <t>2024.03.30 19:30-03.30 21:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>446</v>
+        <v>189</v>
       </c>
       <c r="G22" t="n">
         <v>480</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80906</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81039</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/icsawZU11705566039011.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/FaJbLvS51705401178235.jpeg</t>
         </is>
       </c>
     </row>
@@ -3113,41 +3097,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上海·《笑傲江湖》经典武侠影视金曲音乐会</t>
+          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>牛庄路704号 中国大戏院</t>
+          <t>复兴中路1380号 捷豹上海交响音乐厅</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.03.17 19:30-03.17 21:00</t>
+          <t>2024.04.06 19:30-04.06 21:30</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
         <v>80</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80050</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80875</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/8AwIAy4I1705385447242.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/0iJP3TY61703056498448.jpeg</t>
         </is>
       </c>
     </row>
@@ -3157,41 +3138,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上海·遇见新海诚--帝玖「这次一定」室内乐ACG音乐会</t>
+          <t>上海·《四月是你的谎言》——“公生”与“薰”的钢琴小提琴唯美经典音乐集</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>延安东路523号 凯迪拉克·上海音乐厅</t>
+          <t>丁香路425号 上海东方艺术中心</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.03.17 14:00-03.17 16:00</t>
+          <t>2024.04.13 19:30-04.13 21:30</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="G24" t="n">
         <v>80</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78667</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81258</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/eysvN81k1705977896972.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202311/bTP7w6GD1700130122940.jpeg</t>
         </is>
       </c>
     </row>
@@ -3201,41 +3179,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上海·春卷饭 十周年  2024  专场演出</t>
+          <t>上海·Laurent Coulondre“心动巴黎”2024中国巡回音乐会</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>嘉兴路街道瑞虹路188号瑞虹天地月亮湾3层 Modern Sky LAB摩登天空(瑞虹天地店)</t>
+          <t>汾阳路20号上海音乐学院内 上海贺绿汀音乐厅</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.03.21 20:00-03.21 22:00</t>
+          <t>2024.04.20 19:30-04.20 21:30</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>328</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>480</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81135</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81190</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/ho9rIMg21705894649801.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/wXDdS5ap1705651730828.jpeg</t>
         </is>
       </c>
     </row>
@@ -3245,41 +3220,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上海· TRUE（唐沢美帆）上海动漫交响音乐会</t>
+          <t>上海· 夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>丁香路425号 上海东方艺术中心</t>
+          <t>东大名路889号 友邦大剧院</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.03.30 19:30-03.30 21:00</t>
+          <t>2024.04.26 19:30-04.26 21:30</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
         <v>280</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81139</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80906</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/FaJbLvS51705401178235.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/0Fj4cYOH1705652393930.jpeg</t>
         </is>
       </c>
     </row>
@@ -3289,173 +3261,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2024-06-08</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
+          <t>上海·菊次郎的夏天——久石让钢琴曲梦幻之旅演奏会</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>复兴中路1380号 捷豹上海交响音乐厅</t>
+          <t>延安东路523号 凯迪拉克·上海音乐厅</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.04.06 19:30-04.06 21:30</t>
+          <t>2024.06.08 19:30-06.08 21:00</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>80</v>
       </c>
-      <c r="H27" t="b">
-        <v>1</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81413</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80050</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/0iJP3TY61703056498448.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2024-04-13</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>上海·《四月是你的谎言》——“公生”与“薰”的钢琴小提琴唯美经典音乐集</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>丁香路425号 上海东方艺术中心</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2024.04.13 19:30-04.13 21:30</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>172</v>
-      </c>
-      <c r="G28" t="n">
-        <v>80</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78667</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202311/bTP7w6GD1700130122940.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2024-04-20</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>上海·Laurent Coulondre“心动巴黎”2024中国巡回音乐会</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>汾阳路20号上海音乐学院内 上海贺绿汀音乐厅</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2024.04.20 19:30-04.20 21:30</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" t="n">
-        <v>80</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81135</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/wXDdS5ap1705651730828.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2024-04-26</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>上海· 夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>东大名路889号 友邦大剧院</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2024.04.26 19:30-04.26 21:30</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
-      </c>
-      <c r="G30" t="n">
-        <v>280</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81139</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/0Fj4cYOH1705652393930.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/QqKuy4611706169245363.jpeg</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3514,15 +3351,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -3553,20 +3385,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1726</v>
+        <v>1735</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=70666</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=70666</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202106/okF9H2Uj1623911727887.jpeg</t>
         </is>
@@ -3597,20 +3426,17 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" t="n">
         <v>996</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77530</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77530</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202310/JqP3lHJt1698030195136.jpeg</t>
         </is>
@@ -3641,20 +3467,17 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
         <v>49.9</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79057</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79057</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202312/ASamaqBx1701419480253.jpeg</t>
         </is>
@@ -3685,20 +3508,17 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1989</v>
+        <v>2026</v>
       </c>
       <c r="G5" t="n">
         <v>30</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79005</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79005</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202311/02P8eD3Z1700821985538.jpeg</t>
         </is>
@@ -3729,20 +3549,17 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2093</v>
+        <v>2174</v>
       </c>
       <c r="G6" t="n">
         <v>30</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79292</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79292</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202401/LyD46Kty1705488020552.jpeg</t>
         </is>
@@ -3773,20 +3590,17 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>821</v>
+        <v>857</v>
       </c>
       <c r="G7" t="n">
         <v>30</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79972</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79972</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/z7bFCMqM1702972063289.png</t>
         </is>
@@ -3817,22 +3631,224 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>715</v>
+        <v>832</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80171</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80171</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
           <t>//i2.hdslb.com/bfs/openplatform/202312/chPePM8d1703485388734.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上海·JOYPOLIS世嘉都市乐园</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>中山北路3300号 上海月星环球港</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024.01.21 10:00-02.20 21:00</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>190</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81140</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/7Bq5nJNe1705653236022.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上海·「新春特惠」世嘉都市乐园-JP国潮杂技嘉年华</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中山北路3300号环球港购物中心4楼 上海世嘉都市乐园</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024.01.22 14:00-03.03 18:40</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>49</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81210</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/sw2khwYM1706086166106.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-01-27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上海・明日方舟主题店·[SWEET ZONE甜蜜区域]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>南京东路830号第一百货商业中心B馆5楼(海底捞旁边) 第一百货商业中心</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024.01.27 00:00-03.31 23:59</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>944</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81277</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/hp6D0Drt1705991831205.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上海·次元波板糖×线条小狗MALTESE 主题快闪店</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>西藏北路166静安大悦城北座6楼611号 次元波板糖</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024.02.01 00:00-03.01 23:59</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>167</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81345</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Qbpful951706080847394.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上海·2024《永远的7日之都》x  萌果酱谷子咖啡</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>南京东路340号百联ZX 萌果酱谷子咖啡（百联）</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024.02.02 00:00-03.10 23:59</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>35</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81357</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/5OYoWSGL1706087914805.jpeg</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3891,15 +3907,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -3930,20 +3941,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1726</v>
+        <v>1735</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=70666</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=70666</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202106/okF9H2Uj1623911727887.jpeg</t>
         </is>
@@ -3955,41 +3963,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上海·古影文化《1941·新和医院》大型沉浸式互动剧场</t>
+          <t>上海·2023《蔚蓝档案》x  萌果酱谷子咖啡</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>金玉路2号 古影沉浸式互动游戏剧场</t>
+          <t>南京东路340号百联ZX 萌果酱谷子咖啡（百联）</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023.10.16 10:00-2024.10.15 21:00</t>
+          <t>2023.12.01 00:00-2024.01.31 23:59</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>69</v>
+        <v>2026</v>
       </c>
       <c r="G3" t="n">
-        <v>996</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79005</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77530</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202310/JqP3lHJt1698030195136.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/02P8eD3Z1700821985538.jpeg</t>
         </is>
       </c>
     </row>
@@ -3999,41 +4004,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上海·方块大战（豫园店）</t>
+          <t>上海·「咒术回战  × animate cafe」</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>丽水路88号2楼213 城隍庙第一购物中心</t>
+          <t>西藏北路198号大悦城北座8楼N809-1 animate cafe上海店</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023.10.25 10:00-2024.10.20 21:00</t>
+          <t>2023.12.06 00:00-2024.02.27 23:59</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>2174</v>
       </c>
       <c r="G4" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79292</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79057</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/ASamaqBx1701419480253.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/LyD46Kty1705488020552.jpeg</t>
         </is>
       </c>
     </row>
@@ -4043,41 +4045,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-12-10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上海·Hello Kitty Cosmos 50周年光影特展</t>
+          <t>上海·多维跃迁-2023 红点设计概念大奖获奖作品展</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>漕宝路3055号 宝龙美术馆</t>
+          <t>国展路1099号 上海世博展览馆</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023.11.02 10:00-2024.01.28 18:00</t>
+          <t>2023.12.10 12:00-2024.02.16 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>139</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78809</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77862</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202310/QnmD4yOd1698652192047.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/YsBoZAOW1700551290654.jpeg</t>
         </is>
       </c>
     </row>
@@ -4087,41 +4086,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上海·2023《蔚蓝档案》x  萌果酱谷子咖啡</t>
+          <t>上海·新海诚导演作品《铃芽之旅》展 丨 购票抽新海诚见面会门票丨 超限定复刻原画发售</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>南京东路340号百联ZX 萌果酱谷子咖啡（百联）</t>
+          <t>湖滨路168号 上海无限极荟购物中心</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023.12.01 00:00-2024.01.31 23:59</t>
+          <t>2023.12.22 10:00-2024.02.16 22:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1990</v>
+        <v>1693</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79166</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79005</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202311/02P8eD3Z1700821985538.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/MjTiIYlk1701242361853.jpeg</t>
         </is>
       </c>
     </row>
@@ -4131,41 +4127,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上海·「咒术回战  × animate cafe」</t>
+          <t>上海·爱乐汇“浪漫经典·一生必听”永恒精选2023烛光音乐会</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>西藏北路198号大悦城北座8楼N809-1 animate cafe上海店</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023.12.06 00:00-2024.02.27 23:59</t>
+          <t>2023.12.25 19:30-2024.02.27 21:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2093</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>30</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80057</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79292</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/LyD46Kty1705488020552.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/AeWGG9Rk1703131189224.jpeg</t>
         </is>
       </c>
     </row>
@@ -4175,41 +4168,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上海·新海诚导演作品《铃芽之旅》展 丨 购票抽新海诚见面会门票丨 超限定复刻原画发售</t>
+          <t>上海·爱乐汇《天空之城》久石让&amp;宫崎骏动漫经典音乐作品演奏会</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>湖滨路168号 上海无限极荟购物中心</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023.12.22 10:00-2024.02.16 22:00</t>
+          <t>2023.12.27 19:30-2024.02.03 12:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1673</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>55</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80103</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79166</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202311/MjTiIYlk1701242361853.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/2h2tIq7l1703144874867.png</t>
         </is>
       </c>
     </row>
@@ -4219,41 +4209,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-12-25</t>
+          <t>2024-01-06</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上海·爱乐汇“浪漫经典·一生必听”永恒精选2023烛光音乐会</t>
+          <t>上海·罗小黑 x HAPPY ZOO主题Cafe</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>南京西路1376号 上海商城剧院</t>
+          <t>南京东路340号 百联zx创趣场</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023.12.25 19:30-2024.02.27 21:00</t>
+          <t>2024.01.06 00:00-02.29 23:59</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>832</v>
       </c>
       <c r="G9" t="n">
-        <v>90</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80171</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80057</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/AeWGG9Rk1703131189224.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/chPePM8d1703485388734.png</t>
         </is>
       </c>
     </row>
@@ -4263,41 +4250,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上海·爱乐汇《天空之城》久石让&amp;宫崎骏动漫经典音乐作品演奏会</t>
+          <t>上海·「新春特惠」世嘉都市乐园-JP国潮杂技嘉年华</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>南京西路1376号 上海商城剧院</t>
+          <t>中山北路3300号环球港购物中心4楼 上海世嘉都市乐园</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023.12.27 19:30-2024.02.03 12:00</t>
+          <t>2024.01.22 14:00-03.03 18:40</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>90</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81210</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80103</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/2h2tIq7l1703144874867.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/sw2khwYM1706086166106.jpeg</t>
         </is>
       </c>
     </row>
@@ -4307,41 +4291,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上海·次元波板糖×时光代理人「锦瑟华年主题快闪店」</t>
+          <t>上海·同好召集令火影only</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>西藏北路166静安大悦城北座6楼611号 次元波板糖</t>
+          <t>市真南路1199弄1号 智创TOP综合体产城</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023.12.31 00:00-2024.01.29 23:59</t>
+          <t>2024.01.27 10:00-01.28 18:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>821</v>
+        <v>574</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80284</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79972</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/z7bFCMqM1702972063289.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/9xGb6MXN1704183627126.jpeg</t>
         </is>
       </c>
     </row>
@@ -4351,41 +4332,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上海·罗小黑 x HAPPY ZOO主题Cafe</t>
+          <t>上海·魔都寒假漫展-CF01</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>南京东路340号 百联zx创趣场</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.06 00:00-02.29 23:59</t>
+          <t>2024.01.27 10:00-01.28 16:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>715</v>
+        <v>1019</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80204</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80171</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/chPePM8d1703485388734.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/eK96fdcg1703573110264.jpeg</t>
         </is>
       </c>
     </row>
@@ -4395,41 +4373,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
+          <t>上海・明日方舟主题店·[SWEET ZONE甜蜜区域]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>丁香路425号 上海东方艺术中心</t>
+          <t>南京东路830号第一百货商业中心B馆5楼(海底捞旁边) 第一百货商业中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.26 19:30-01.26 21:30</t>
+          <t>2024.01.27 00:00-03.31 23:59</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>163</v>
+        <v>944</v>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81277</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78418</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202311/GHpvkT5Y1699605760230.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/hp6D0Drt1705991831205.jpeg</t>
         </is>
       </c>
     </row>
@@ -4439,41 +4414,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上海·25时主题同人茶会</t>
+          <t>上海 ·WOW潮元原神x星铁主题二次元狂欢派对</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>沪太路3100号 尚大国际</t>
+          <t>政通路189号五角场万达广场C栋 元气森林livehouse</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.01.27 12:00-01.27 18:00</t>
+          <t>2024.01.28 14:00-01.28 19:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="G14" t="n">
-        <v>68</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80167</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80548</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/dQ4DrxCk1704683144116.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/QTp32HEM1705028548091.jpeg</t>
         </is>
       </c>
     </row>
@@ -4483,41 +4455,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上海·Azurock」Azurose ACG Cover Live</t>
+          <t>上海·坏孩纸物语の第32届动漫节之冬日季</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>愚园路1398号 育音堂音乐公园</t>
+          <t>剑川路1000号 闵行龙湖天街</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.01.27 19:00-01.27 21:30</t>
+          <t>2024.01.28 14:00-01.28 20:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>59</v>
+        <v>744</v>
       </c>
       <c r="G15" t="n">
-        <v>88</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
+        <v>36.9</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80871</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80277</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/5d6O1Rf11703742965244.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/5fmQrQJ81705573963752.png</t>
         </is>
       </c>
     </row>
@@ -4527,41 +4496,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上海·SISPmini动漫游戏嘉年华</t>
+          <t>上海·寻迹冬日LOVELIVE同好会</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>剑川路1000号 龙湖上海闵行天街</t>
+          <t>愚园路1250号 新歌空间</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.01.27 13:00-01.28 19:00</t>
+          <t>2024.01.31 11:30-01.31 17:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>387</v>
+        <v>194</v>
       </c>
       <c r="G16" t="n">
-        <v>48</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79332</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79046</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/tprwYGIB1705976768947.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/Ewreg1JT1701677993728.jpeg</t>
         </is>
       </c>
     </row>
@@ -4571,41 +4537,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上海·同好召集令火影only</t>
+          <t>上海·次元波板糖×线条小狗MALTESE 主题快闪店</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>市真南路1199弄1号 智创TOP综合体产城</t>
+          <t>西藏北路166静安大悦城北座6楼611号 次元波板糖</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 18:00</t>
+          <t>2024.02.01 00:00-03.01 23:59</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>536</v>
+        <v>167</v>
       </c>
       <c r="G17" t="n">
-        <v>78</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81345</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80284</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/9xGb6MXN1704183627126.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Qbpful951706080847394.png</t>
         </is>
       </c>
     </row>
@@ -4615,41 +4578,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上海·咒术only-幽暗之森1.0</t>
+          <t>上海·2024《永远的7日之都》x  萌果酱谷子咖啡</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>南京东路340号百联ZX 萌果酱谷子咖啡（百联）</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 16:00</t>
+          <t>2024.02.02 00:00-03.10 23:59</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>59</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81357</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80045</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/hUfcrw3y1703055422885.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/5OYoWSGL1706087914805.jpeg</t>
         </is>
       </c>
     </row>
@@ -4659,41 +4619,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上海·日本原版《数码宝贝舞台剧：游乐园之谜》</t>
+          <t>上海·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>茂名南路57号近长乐路 上海兰心大戏院</t>
+          <t>中兴路1683号金融街购物中心L3-27 蜚声上海Livehouse</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.01.27 15:30-01.27 20:55</t>
+          <t>2024.02.02 12:30-02.02 21:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>672</v>
       </c>
       <c r="G19" t="n">
-        <v>120</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
+        <v>380</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80128</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79783</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/S6nZ327b1702534484951.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/DEW1XYty1703226993965.jpeg</t>
         </is>
       </c>
     </row>
@@ -4703,41 +4660,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上海·第八届次元鹿角动漫游戏展</t>
+          <t>上海·Coser迎春动漫展</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>吴中路1588号上海爱琴海购物中心F4 竞梦元宇宙</t>
+          <t>海潮路133号B1 JUMP工坊</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 21:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1166</v>
+        <v>855</v>
       </c>
       <c r="G20" t="n">
-        <v>68</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80646</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80979</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/xPOF923U1705545223366.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/4WVkFc4d1704787729064.jpeg</t>
         </is>
       </c>
     </row>
@@ -4747,41 +4701,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上海·魔都寒假漫展-CF01</t>
+          <t>上海·ENP电次元派对vol.04</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>人民大道221号 迪美购物中心</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 16:00</t>
+          <t>2024.02.03 18:30-02.03 22:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>919</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>49</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80945</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80204</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/eK96fdcg1703573110264.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/1sjalWS51705479361512.jpeg</t>
         </is>
       </c>
     </row>
@@ -4791,41 +4742,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上海•Risa Yuzuki 1st ONEMAN LIVE 「Future Interlink」 追加公演</t>
+          <t>上海·偶像梦幻祭红白歌合战Only</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>愚园路1250号 新歌空间</t>
+          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.01.27 18:30-01.27 21:00</t>
+          <t>2024.02.03 13:30-02.03 22:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>298</v>
+        <v>93</v>
       </c>
       <c r="G22" t="n">
-        <v>278</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81199</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77773</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202310/XKKYWAk51698315607196.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/C7E7svbZ1705903245860.jpeg</t>
         </is>
       </c>
     </row>
@@ -4835,41 +4783,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上海 ·WOW潮元原神x星铁主题二次元狂欢派对</t>
+          <t>上海·第七届次元鹿角二次元派对</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>政通路189号五角场万达广场C栋 元气森林livehouse</t>
+          <t>长宁路1191号来福士西区(W)B1层01号、11号 星零界</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.01.28 14:00-01.28 19:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>426</v>
+        <v>1331</v>
       </c>
       <c r="G23" t="n">
-        <v>129</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79938</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80167</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/QTp32HEM1705028548091.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/b1XT2w4T1705027781100.jpeg</t>
         </is>
       </c>
     </row>
@@ -4879,41 +4824,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上海·寻迹冬日LOVELIVE同好会</t>
+          <t>上海·触手猴钢琴巡演·marasy piano live tour『生音』上海站·Powered by 东方弹幕神乐失落幻想</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>愚园路1250号 新歌空间</t>
+          <t>丁香路425号(上海科技馆地铁站1号口步行460米) 上海东方艺术中心音乐厅</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.01.31 11:30-01.31 17:00</t>
+          <t>2024.02.04 19:30-02.04 21:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>184</v>
+        <v>470</v>
       </c>
       <c r="G24" t="n">
-        <v>83</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80734</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79332</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/Ewreg1JT1701677993728.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/IcjPp0TE1704951328918.jpeg</t>
         </is>
       </c>
     </row>
@@ -4923,41 +4865,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上海·次元LAB 二次元电音节</t>
+          <t>上海·寒假CF漫展-春节档-神龙在世</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>中兴路1683号金融街购物中心L3-27 蜚声上海Livehouse</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.02.02 12:30-02.02 21:00</t>
+          <t>2024.02.10 10:00-02.17 16:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>624</v>
+        <v>38</v>
       </c>
       <c r="G25" t="n">
-        <v>380</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81192</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80128</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/DEW1XYty1703226993965.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/S8XxkA631705896741998.jpeg</t>
         </is>
       </c>
     </row>
@@ -4967,41 +4906,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上海·Coser迎春动漫展</t>
+          <t>上海·原X铁X崩only</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>海潮路133号B1 JUMP工坊</t>
+          <t>澳门路168号 月星国际家居</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.14 10:30-02.14 16:30</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>659</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
         <v>60</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81446</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80646</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/4WVkFc4d1704787729064.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/IIePRulM1706248855263.jpeg</t>
         </is>
       </c>
     </row>
@@ -5011,41 +4947,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上海·偶像梦幻祭红白歌合战Only</t>
+          <t>上海·奇卡波利动漫嘉年华</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
+          <t>申滨路36号 虹桥丽宝广场</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.02.03 13:30-02.03 22:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G27" t="n">
-        <v>88</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
+        <v>48.8</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81260</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81199</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/C7E7svbZ1705903245860.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/9OHovK2V1705978109130.jpeg</t>
         </is>
       </c>
     </row>
@@ -5055,12 +4988,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上海·寒假CF漫展-春节档-神龙在世</t>
+          <t>上海·魔都COS漫展-情人节专场AM01</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5070,26 +5003,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.02.10 10:00-02.17 16:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="G28" t="n">
         <v>49</v>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80691</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81192</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/S8XxkA631705896741998.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/aSdjV6Kw1704868345679.jpeg</t>
         </is>
       </c>
     </row>
@@ -5099,41 +5029,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上海·魔都COS漫展-情人节专场AM01</t>
+          <t>上海·次元裂缝-X 新年anikura派对</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>海潮路133号B1 JUMP工坊</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 16:00</t>
+          <t>2024.02.16 14:00-02.16 19:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>49</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81314</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80691</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/aSdjV6Kw1704868345679.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/OrhHWKdR1706062360956.jpeg</t>
         </is>
       </c>
     </row>
@@ -5162,20 +5089,17 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1207</v>
+        <v>1250</v>
       </c>
       <c r="G30" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="H30" t="b">
-        <v>0</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80497</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80497</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/0duSXTQy1704423309244.jpeg</t>
         </is>
@@ -5206,20 +5130,17 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>208</v>
+        <v>349</v>
       </c>
       <c r="G31" t="n">
         <v>80</v>
       </c>
-      <c r="H31" t="b">
-        <v>0</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81148</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81148</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/j6eEZ18S1705657346664.jpeg</t>
         </is>
@@ -5236,12 +5157,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上海·SISP动漫游戏嘉年华</t>
+          <t>上海·SISPmini动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>年家浜路518号 周浦万达广场</t>
+          <t>剑川路1000号 龙湖上海闵行天街</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5250,22 +5171,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>114</v>
+        <v>426</v>
       </c>
       <c r="G32" t="n">
         <v>48</v>
       </c>
-      <c r="H32" t="b">
-        <v>0</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79046</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80339</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/a8iuOufB1703832570508.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/jzovdppq1706166165502.jpeg</t>
         </is>
       </c>
     </row>
@@ -5280,36 +5198,33 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上海·第三届燃梦BACG PRO游戏动漫展-原X铁X崩同好交流</t>
+          <t>上海·原神×崩坏×星铁only旅行盛宴2.0</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>盈浦街道淀山浦社区淀山湖大道851号青浦万达茂F3 万达汽车乐园(青浦万达茂店)</t>
+          <t>西藏南路1号 上海大世界</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024.02.24 11:00-02.25 16:30</t>
+          <t>2024.02.24 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2475</v>
+        <v>118</v>
       </c>
       <c r="G33" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81276</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77754</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/7eGZETK91701943985671.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/82hU3z8m1706155835021.png</t>
         </is>
       </c>
     </row>
@@ -5319,41 +5234,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上海·青山吉能见面会</t>
+          <t>上海·趣元界&amp;斗罗大陆上元佳节次元派对</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>虹许路731号4号楼 THE BOXX•城市乐园</t>
+          <t>长宁路1191号长宁来福士B1 长宁来福士</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024.02.25 14:30-02.25 19:30</t>
+          <t>2024.02.24 11:30-02.25 17:30</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>509</v>
       </c>
       <c r="G34" t="n">
-        <v>380</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81415</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80142</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/1npuHFBM1703231674558.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/yis4JHfE1706169986733.jpeg</t>
         </is>
       </c>
     </row>
@@ -5363,41 +5275,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上海·原神X星穹铁道ONLY</t>
+          <t>上海·魔都元宵节漫展-COS为王</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>逸仙路301号靠纪念路路口 上海宝丰联大酒店</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.02 17:00</t>
+          <t>2024.02.24 10:00-02.25 16:00</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>60</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81238</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80299</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/V0xu26Cl1703753850690.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/KxQZPADR1705913896609.jpeg</t>
         </is>
       </c>
     </row>
@@ -5407,41 +5316,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上海·小山百代2024上海粉丝见面会</t>
+          <t>上海·魔都多厨狂喜漫展-CH01</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>宜昌路179号 万代南梦宫上海文化中心</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024.03.02 13:00-03.02 20:00</t>
+          <t>2024.02.24 10:00-02.25 16:00</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>380</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81423</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80924</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/FpA9OkKy1705467080070.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/axpOY3zo1706173660010.jpeg</t>
         </is>
       </c>
     </row>
@@ -5451,41 +5357,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上海·怀旧番ONLY</t>
+          <t>上海·原神X星穹铁道ONLY</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>逸仙路270号  上海宝丰联大酒店</t>
+          <t>逸仙路301号靠纪念路路口 上海宝丰联大酒店</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024.03.03 10:00-03.03 17:00</t>
+          <t>2024.03.02 10:00-03.02 17:00</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="G37" t="n">
         <v>60</v>
       </c>
-      <c r="H37" t="b">
-        <v>0</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80299</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80575</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/y4uWdyPT1704700763902.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/V0xu26Cl1703753850690.jpeg</t>
         </is>
       </c>
     </row>
@@ -5495,41 +5398,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上海·S·CGE动漫游戏嘉年华</t>
+          <t>上海·小山百代2024上海粉丝见面会</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>军工路1076号 纪希片场(秀场)</t>
+          <t>宜昌路179号 万代南梦宫上海文化中心</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
+          <t>2024.03.02 13:00-03.02 20:00</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="G38" t="n">
-        <v>70</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80924</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81173</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/TYA5FLkE1705891815532.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/FpA9OkKy1705467080070.jpeg</t>
         </is>
       </c>
     </row>
@@ -5539,41 +5439,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上海·第五十三届燃梦星辰动漫嘉年华-随机宅舞</t>
+          <t>上海·怀旧番ONLY</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>周家嘴路3608号 宝龙旭辉广场</t>
+          <t>逸仙路270号  上海宝丰联大酒店</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024.03.09 10:20-03.10 16:30</t>
+          <t>2024.03.03 10:00-03.03 17:00</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="G39" t="n">
-        <v>58</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80575</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80571</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/SHH70VXN1704700240858.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/y4uWdyPT1704700763902.jpeg</t>
         </is>
       </c>
     </row>
@@ -5583,41 +5480,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上海·青山刚昌ONLY【名侦探柯南&amp;魔术快斗】</t>
+          <t>上海·第八届ACBC动漫盛典-国潮汉服游园会</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>漕宝路1688号 诺宝中心酒店</t>
+          <t>浦锦南路1586弄2号 奇迹花园</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.09 16:30</t>
+          <t>2024.03.08 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>872</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>73</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81456</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76410</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202309/fVXMrcHy1693971682397.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/qZtpawf51706254849667.jpeg</t>
         </is>
       </c>
     </row>
@@ -5627,41 +5521,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上海·三月的幻想演唱会2024「飞越蓝色时刻」</t>
+          <t>上海·S·CGE动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>宜昌路179号 万代南梦宫上海文化中心</t>
+          <t>军工路1076号 纪希片场(秀场)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024.03.16 19:00-03.16 20:30</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G41" t="n">
-        <v>380</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81173</t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80811</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/TO6xpSqr1705289483473.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/TYA5FLkE1705891815532.jpeg</t>
         </is>
       </c>
     </row>
@@ -5671,41 +5562,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上海·坏孩纸物语の第33届动漫节之庄子篇</t>
+          <t>上海·爱乐之城音乐会</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>中山北路3300号4楼L4001号 环球港上海世嘉都市乐园</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.17 21:00</t>
+          <t>2024.03.09 14:00-03.09 15:30</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81289</t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81138</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/jpr1lCt21705652306481.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/ZZXtDrwZ1705996679699.jpeg</t>
         </is>
       </c>
     </row>
@@ -5715,41 +5603,38 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上海· TRUE（唐沢美帆）上海动漫交响音乐会</t>
+          <t>上海·青山刚昌ONLY【名侦探柯南&amp;魔术快斗】</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>丁香路425号 上海东方艺术中心</t>
+          <t>漕宝路1688号 诺宝中心酒店</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024.03.30 19:30-03.30 21:00</t>
+          <t>2024.03.09 10:00-03.09 16:30</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>145</v>
+        <v>893</v>
       </c>
       <c r="G43" t="n">
-        <v>280</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=76410</t>
+        </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80906</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/FaJbLvS51705401178235.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202309/fVXMrcHy1693971682397.jpeg</t>
         </is>
       </c>
     </row>
@@ -5759,41 +5644,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上海· TRUE（唐沢美帆）上海动漫交响音乐会</t>
+          <t>上海·坏孩纸物语の第33届动漫节之庄子篇</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>丁香路425号 上海东方艺术中心</t>
+          <t>中山北路3300号4楼L4001号 环球港上海世嘉都市乐园</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024.03.30 19:30-03.30 21:00</t>
+          <t>2024.03.16 10:00-03.17 21:00</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="G44" t="n">
-        <v>280</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81138</t>
+        </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80906</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/FaJbLvS51705401178235.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/jpr1lCt21705652306481.png</t>
         </is>
       </c>
     </row>
@@ -5803,41 +5685,38 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上海·第四届次元鹿角动漫游戏展</t>
+          <t>上海·遇见新海诚--帝玖「这次一定」室内乐ACG音乐会</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>顾村镇蕰川路6号 智慧湾科创园</t>
+          <t>延安东路523号 凯迪拉克·上海音乐厅</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024.04.05 10:00-04.06 17:00</t>
+          <t>2024.03.17 14:00-03.17 16:00</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G45" t="n">
-        <v>60</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81258</t>
+        </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78228</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202311/jgqIFxhx1699344723568.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/eysvN81k1705977896972.jpeg</t>
         </is>
       </c>
     </row>
@@ -5847,41 +5726,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
+          <t>上海·《四月是你的谎言》友人A经典动漫音乐会</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>复兴中路1380号 捷豹上海交响音乐厅</t>
+          <t>南京西路1376号 上海商城剧院</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024.04.06 19:30-04.06 21:30</t>
+          <t>2024.03.23 15:00-03.23 16:30</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" t="n">
-        <v>80</v>
-      </c>
-      <c r="H46" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81361</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80050</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/0iJP3TY61703056498448.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/wL0ZWVYi1706091574963.png</t>
         </is>
       </c>
     </row>
@@ -5910,20 +5786,17 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G47" t="n">
         <v>80</v>
       </c>
-      <c r="H47" t="b">
-        <v>1</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78667</t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78667</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202311/bTP7w6GD1700130122940.jpeg</t>
         </is>
@@ -5935,41 +5808,38 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上海· 夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
+          <t>上海·  第五十三届妖漫动漫游戏展</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>东大名路889号 友邦大剧院</t>
+          <t>曹杨路1888号 复悦荟</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024.04.26 19:30-04.26 21:30</t>
+          <t>2024.04.27 10:00-04.27 17:00</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G48" t="n">
-        <v>280</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78657</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81139</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/0Fj4cYOH1705652393930.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/tamNdgEN1705331335847.jpeg</t>
         </is>
       </c>
     </row>
@@ -5979,41 +5849,38 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上海·  第五十三届妖漫动漫游戏展</t>
+          <t>上海·S·CGE动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>曹杨路1888号 复悦荟</t>
+          <t>军工路1076号 纪希片场(秀场)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024.04.27 10:00-04.27 17:00</t>
+          <t>2024.05.01 10:00-05.02 17:00</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="G49" t="n">
-        <v>80</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81204</t>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78657</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/tamNdgEN1705331335847.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/nbFRULYe1705904589212.jpeg</t>
         </is>
       </c>
     </row>
@@ -6028,78 +5895,31 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上海·S·CGE动漫游戏嘉年华</t>
+          <t>上海·魔都野良神only</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>军工路1076号 纪希片场(秀场)</t>
+          <t>南京东路830号 第一百货</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
+          <t>2024.05.01 10:00-05.01 17:00</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="G50" t="n">
-        <v>70</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80321</t>
+        </is>
       </c>
       <c r="I50" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81204</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/nbFRULYe1705904589212.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2024-05-01</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>上海·魔都野良神only</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>南京东路830号 第一百货</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2024.05.01 10:00-05.01 17:00</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>186</v>
-      </c>
-      <c r="G51" t="n">
-        <v>79</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80321</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202401/KBlb0enU1704358750268.jpeg</t>
         </is>
